--- a/Divisions/I1.xlsx
+++ b/Divisions/I1.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9234" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9338" uniqueCount="326">
   <si>
     <t>Team</t>
   </si>
@@ -743,6 +744,258 @@
   </si>
   <si>
     <t>2.3529</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Atalanta,W W W D W D</t>
+  </si>
+  <si>
+    <t>Benevento,D L L D L L</t>
+  </si>
+  <si>
+    <t>Bologna,L L W D L D</t>
+  </si>
+  <si>
+    <t>Cagliari,L L W W W D</t>
+  </si>
+  <si>
+    <t>Crotone,L L L L W L</t>
+  </si>
+  <si>
+    <t>Fiorentina,D L L W D D</t>
+  </si>
+  <si>
+    <t>Genoa,D L L D W L</t>
+  </si>
+  <si>
+    <t>Inter,W W D D W W</t>
+  </si>
+  <si>
+    <t>Juventus,W W L W D W</t>
+  </si>
+  <si>
+    <t>Lazio,W W W L W W</t>
+  </si>
+  <si>
+    <t>Milan,D W W L L W</t>
+  </si>
+  <si>
+    <t>Napoli,L W D W W D</t>
+  </si>
+  <si>
+    <t>Parma,D L L L L L</t>
+  </si>
+  <si>
+    <t>Roma,D W L D L L</t>
+  </si>
+  <si>
+    <t>Sampdoria,D L W W L W</t>
+  </si>
+  <si>
+    <t>Sassuolo,L W W W W D</t>
+  </si>
+  <si>
+    <t>Spezia,L W L D L D</t>
+  </si>
+  <si>
+    <t>Torino,D W W D L W</t>
+  </si>
+  <si>
+    <t>Udinese,L L W L W L</t>
+  </si>
+  <si>
+    <t>Verona,W L L L L D</t>
+  </si>
+  <si>
+    <t>Atalanta,3 3 1 1 5 1</t>
+  </si>
+  <si>
+    <t>Benevento,2 0 3 2 2 0</t>
+  </si>
+  <si>
+    <t>Bologna,0 0 4 1 0 3</t>
+  </si>
+  <si>
+    <t>Cagliari,0 0 4 1 3 1</t>
+  </si>
+  <si>
+    <t>Crotone,3 2 1 0 4 0</t>
+  </si>
+  <si>
+    <t>Fiorentina,1 2 1 2 1 3</t>
+  </si>
+  <si>
+    <t>Genoa,1 1 1 2 2 3</t>
+  </si>
+  <si>
+    <t>Inter,2 1 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Juventus,2 3 0 3 1 2</t>
+  </si>
+  <si>
+    <t>Lazio,2 1 5 2 3 4</t>
+  </si>
+  <si>
+    <t>Milan,1 3 2 1 0 2</t>
+  </si>
+  <si>
+    <t>Napoli,1 2 1 5 2 1</t>
+  </si>
+  <si>
+    <t>Parma,2 1 3 1 3 0</t>
+  </si>
+  <si>
+    <t>Roma,2 1 1 1 2 0</t>
+  </si>
+  <si>
+    <t>Sampdoria,1 0 3 1 0 2</t>
+  </si>
+  <si>
+    <t>Sassuolo,1 1 3 2 1 1</t>
+  </si>
+  <si>
+    <t>Spezia,1 3 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Torino,2 1 3 1 0 1</t>
+  </si>
+  <si>
+    <t>Udinese,2 0 2 0 4 1</t>
+  </si>
+  <si>
+    <t>Verona,2 0 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Atalanta,2 2 0 1 0 1</t>
+  </si>
+  <si>
+    <t>Benevento,2 1 5 2 4 2</t>
+  </si>
+  <si>
+    <t>Bologna,1 1 1 1 5 3</t>
+  </si>
+  <si>
+    <t>Cagliari,2 1 3 0 2 1</t>
+  </si>
+  <si>
+    <t>Crotone,4 3 2 1 3 2</t>
+  </si>
+  <si>
+    <t>Fiorentina,1 3 3 1 1 3</t>
+  </si>
+  <si>
+    <t>Genoa,1 3 2 2 0 4</t>
+  </si>
+  <si>
+    <t>Inter,1 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Juventus,1 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Lazio,1 0 3 5 0 3</t>
+  </si>
+  <si>
+    <t>Milan,1 1 1 2 3 0</t>
+  </si>
+  <si>
+    <t>Napoli,2 0 1 2 0 1</t>
+  </si>
+  <si>
+    <t>Parma,2 3 4 3 4 1</t>
+  </si>
+  <si>
+    <t>Roma,2 0 3 1 3 2</t>
+  </si>
+  <si>
+    <t>Sampdoria,1 2 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Sassuolo,2 0 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Spezia,2 2 4 1 2 1</t>
+  </si>
+  <si>
+    <t>Torino,2 0 1 1 2 0</t>
+  </si>
+  <si>
+    <t>Udinese,3 1 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Verona,0 1 3 2 1 1</t>
+  </si>
+  <si>
+    <t>Atalanta,5 5 1 2 5 2</t>
+  </si>
+  <si>
+    <t>Benevento,4 1 8 4 6 2</t>
+  </si>
+  <si>
+    <t>Bologna,1 1 5 2 5 6</t>
+  </si>
+  <si>
+    <t>Cagliari,2 1 7 1 5 2</t>
+  </si>
+  <si>
+    <t>Crotone,7 5 3 1 7 2</t>
+  </si>
+  <si>
+    <t>Fiorentina,2 5 4 3 2 6</t>
+  </si>
+  <si>
+    <t>Genoa,2 4 3 4 2 7</t>
+  </si>
+  <si>
+    <t>Inter,3 1 2 2 1 2</t>
+  </si>
+  <si>
+    <t>Juventus,3 4 1 4 2 3</t>
+  </si>
+  <si>
+    <t>Lazio,3 1 8 7 3 7</t>
+  </si>
+  <si>
+    <t>Milan,2 4 3 3 3 2</t>
+  </si>
+  <si>
+    <t>Napoli,3 2 2 7 2 2</t>
+  </si>
+  <si>
+    <t>Parma,4 4 7 4 7 1</t>
+  </si>
+  <si>
+    <t>Roma,4 1 4 2 5 2</t>
+  </si>
+  <si>
+    <t>Sampdoria,2 2 4 1 1 2</t>
+  </si>
+  <si>
+    <t>Sassuolo,3 1 4 3 1 2</t>
+  </si>
+  <si>
+    <t>Spezia,3 5 5 2 2 2</t>
+  </si>
+  <si>
+    <t>Torino,4 1 4 2 2 1</t>
+  </si>
+  <si>
+    <t>Udinese,5 1 3 1 6 3</t>
+  </si>
+  <si>
+    <t>Verona,2 1 4 3 1 2</t>
   </si>
 </sst>
 </file>
@@ -28821,4 +29074,372 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/I1.xlsx
+++ b/Divisions/I1.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="7"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Form" sheetId="2" r:id="rId2"/>
-    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
-    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
-    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
-    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
-    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
-    <sheet name="L6" sheetId="8" r:id="rId8"/>
+    <sheet name="Table" r:id="rId3" sheetId="1"/>
+    <sheet name="Form" r:id="rId4" sheetId="2"/>
+    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
+    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
+    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
+    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1288,184 +1281,184 @@
     <t>Verona,L L L D D L</t>
   </si>
   <si>
-    <t>Atalanta,1 5 1 5 2 4</t>
-  </si>
-  <si>
-    <t>Benevento,2 2 0 1 0 1</t>
-  </si>
-  <si>
-    <t>Bologna,4 1 0 3 1 0</t>
-  </si>
-  <si>
-    <t>Cagliari,1 3 1 3 0 0</t>
-  </si>
-  <si>
-    <t>Crotone,0 4 0 0 2 1</t>
-  </si>
-  <si>
-    <t>Fiorentina,2 1 3 2 0 0</t>
-  </si>
-  <si>
-    <t>Genoa,2 2 3 1 2 3</t>
-  </si>
-  <si>
-    <t>Inter,1 1 2 5 3 2</t>
-  </si>
-  <si>
-    <t>Juventus,3 1 2 0 3 3</t>
-  </si>
-  <si>
-    <t>Lazio,2 3 4 0 1 0</t>
-  </si>
-  <si>
-    <t>Milan,1 0 2 3 7 0</t>
-  </si>
-  <si>
-    <t>Napoli,5 2 1 4 5 2</t>
-  </si>
-  <si>
-    <t>Parma,1 3 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Roma,1 2 0 5 1 2</t>
-  </si>
-  <si>
-    <t>Sampdoria,1 0 2 1 2 1</t>
-  </si>
-  <si>
-    <t>Sassuolo,2 1 1 2 1 3</t>
-  </si>
-  <si>
-    <t>Spezia,1 0 1 1 2 4</t>
-  </si>
-  <si>
-    <t>Torino,1 0 1 1 0 1</t>
-  </si>
-  <si>
-    <t>Udinese,0 4 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Verona,1 1 0 1 1 1</t>
-  </si>
-  <si>
-    <t>Atalanta,1 0 1 2 0 3</t>
-  </si>
-  <si>
-    <t>Benevento,2 4 2 3 2 1</t>
-  </si>
-  <si>
-    <t>Bologna,1 1 5 3 1 2</t>
-  </si>
-  <si>
-    <t>Cagliari,0 2 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Crotone,1 3 2 5 1 1</t>
-  </si>
-  <si>
-    <t>Fiorentina,1 1 3 0 0 2</t>
-  </si>
-  <si>
-    <t>Genoa,2 0 4 2 0 4</t>
-  </si>
-  <si>
-    <t>Inter,1 0 0 1 1 3</t>
-  </si>
-  <si>
-    <t>Juventus,1 1 1 3 1 2</t>
-  </si>
-  <si>
-    <t>Lazio,5 0 3 2 0 2</t>
-  </si>
-  <si>
-    <t>Milan,2 3 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Napoli,2 0 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Parma,3 4 1 5 1 3</t>
-  </si>
-  <si>
-    <t>Roma,1 3 2 0 3 0</t>
-  </si>
-  <si>
-    <t>Sampdoria,0 1 0 5 2 0</t>
-  </si>
-  <si>
-    <t>Sassuolo,1 0 1 1 3 1</t>
-  </si>
-  <si>
-    <t>Spezia,1 2 1 4 2 1</t>
-  </si>
-  <si>
-    <t>Torino,1 2 0 1 7 4</t>
-  </si>
-  <si>
-    <t>Udinese,1 2 2 1 5 1</t>
-  </si>
-  <si>
-    <t>Verona,3 2 1 1 1 2</t>
-  </si>
-  <si>
-    <t>Atalanta,2 5 2 7 2 7</t>
-  </si>
-  <si>
-    <t>Benevento,4 6 2 4 2 2</t>
-  </si>
-  <si>
-    <t>Bologna,5 2 5 6 2 2</t>
-  </si>
-  <si>
-    <t>Cagliari,1 5 2 4 0 0</t>
-  </si>
-  <si>
-    <t>Crotone,1 7 2 5 3 2</t>
-  </si>
-  <si>
-    <t>Fiorentina,3 2 6 2 0 2</t>
-  </si>
-  <si>
-    <t>Genoa,4 2 7 3 2 7</t>
-  </si>
-  <si>
-    <t>Inter,2 1 2 6 4 5</t>
-  </si>
-  <si>
-    <t>Juventus,4 2 3 3 4 5</t>
-  </si>
-  <si>
-    <t>Lazio,7 3 7 2 1 2</t>
-  </si>
-  <si>
-    <t>Milan,3 3 2 3 7 0</t>
-  </si>
-  <si>
-    <t>Napoli,7 2 2 5 6 2</t>
-  </si>
-  <si>
-    <t>Parma,4 7 1 7 1 4</t>
-  </si>
-  <si>
-    <t>Roma,2 5 2 5 4 2</t>
-  </si>
-  <si>
-    <t>Sampdoria,1 1 2 6 4 1</t>
-  </si>
-  <si>
-    <t>Sassuolo,3 1 2 3 4 4</t>
-  </si>
-  <si>
-    <t>Spezia,2 2 2 5 4 5</t>
-  </si>
-  <si>
-    <t>Torino,2 2 1 2 7 5</t>
-  </si>
-  <si>
-    <t>Udinese,1 6 3 2 6 1</t>
-  </si>
-  <si>
-    <t>Verona,4 3 1 2 2 3</t>
+    <t>Atalanta,1 5 1 5 2 4,(18)</t>
+  </si>
+  <si>
+    <t>Benevento,2 2 0 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Bologna,4 1 0 3 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Cagliari,1 3 1 3 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Crotone,0 4 0 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Fiorentina,2 1 3 2 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Genoa,2 2 3 1 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Inter,1 1 2 5 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Juventus,3 1 2 0 3 3,(12)</t>
+  </si>
+  <si>
+    <t>Lazio,2 3 4 0 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Milan,1 0 2 3 7 0,(13)</t>
+  </si>
+  <si>
+    <t>Napoli,5 2 1 4 5 2,(19)</t>
+  </si>
+  <si>
+    <t>Parma,1 3 0 2 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Roma,1 2 0 5 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Sampdoria,1 0 2 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Sassuolo,2 1 1 2 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Spezia,1 0 1 1 2 4,(9)</t>
+  </si>
+  <si>
+    <t>Torino,1 0 1 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Udinese,0 4 1 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Verona,1 1 0 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Atalanta,1 0 1 2 0 3,(7)</t>
+  </si>
+  <si>
+    <t>Benevento,2 4 2 3 2 1,(14)</t>
+  </si>
+  <si>
+    <t>Bologna,1 1 5 3 1 2,(13)</t>
+  </si>
+  <si>
+    <t>Cagliari,0 2 1 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Crotone,1 3 2 5 1 1,(13)</t>
+  </si>
+  <si>
+    <t>Fiorentina,1 1 3 0 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Genoa,2 0 4 2 0 4,(12)</t>
+  </si>
+  <si>
+    <t>Inter,1 0 0 1 1 3,(6)</t>
+  </si>
+  <si>
+    <t>Juventus,1 1 1 3 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Lazio,5 0 3 2 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Milan,2 3 0 0 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Napoli,2 0 1 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Parma,3 4 1 5 1 3,(17)</t>
+  </si>
+  <si>
+    <t>Roma,1 3 2 0 3 0,(9)</t>
+  </si>
+  <si>
+    <t>Sampdoria,0 1 0 5 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Sassuolo,1 0 1 1 3 1,(7)</t>
+  </si>
+  <si>
+    <t>Spezia,1 2 1 4 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Torino,1 2 0 1 7 4,(15)</t>
+  </si>
+  <si>
+    <t>Udinese,1 2 2 1 5 1,(12)</t>
+  </si>
+  <si>
+    <t>Verona,3 2 1 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Atalanta,2 5 2 7 2 7,(25)</t>
+  </si>
+  <si>
+    <t>Benevento,4 6 2 4 2 2,(20)</t>
+  </si>
+  <si>
+    <t>Bologna,5 2 5 6 2 2,(22)</t>
+  </si>
+  <si>
+    <t>Cagliari,1 5 2 4 0 0,(12)</t>
+  </si>
+  <si>
+    <t>Crotone,1 7 2 5 3 2,(20)</t>
+  </si>
+  <si>
+    <t>Fiorentina,3 2 6 2 0 2,(15)</t>
+  </si>
+  <si>
+    <t>Genoa,4 2 7 3 2 7,(25)</t>
+  </si>
+  <si>
+    <t>Inter,2 1 2 6 4 5,(20)</t>
+  </si>
+  <si>
+    <t>Juventus,4 2 3 3 4 5,(21)</t>
+  </si>
+  <si>
+    <t>Lazio,7 3 7 2 1 2,(22)</t>
+  </si>
+  <si>
+    <t>Milan,3 3 2 3 7 0,(18)</t>
+  </si>
+  <si>
+    <t>Napoli,7 2 2 5 6 2,(24)</t>
+  </si>
+  <si>
+    <t>Parma,4 7 1 7 1 4,(24)</t>
+  </si>
+  <si>
+    <t>Roma,2 5 2 5 4 2,(20)</t>
+  </si>
+  <si>
+    <t>Sampdoria,1 1 2 6 4 1,(15)</t>
+  </si>
+  <si>
+    <t>Sassuolo,3 1 2 3 4 4,(17)</t>
+  </si>
+  <si>
+    <t>Spezia,2 2 2 5 4 5,(20)</t>
+  </si>
+  <si>
+    <t>Torino,2 2 1 2 7 5,(19)</t>
+  </si>
+  <si>
+    <t>Udinese,1 6 3 2 6 1,(19)</t>
+  </si>
+  <si>
+    <t>Verona,4 3 1 2 2 3,(15)</t>
   </si>
   <si>
     <t>Atalanta,Roma Bologna Sassuolo Parma Benevento Genoa</t>
@@ -1531,10 +1524,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1546,7 +1540,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1564,292 +1558,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1910,7 +1631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +1663,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1974,7 +1695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +1727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +1759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2070,7 +1791,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2102,7 +1823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2134,7 +1855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2166,7 +1887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2198,7 +1919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2230,7 +1951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2262,7 +1983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2294,7 +2015,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2047,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2358,7 +2079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2390,7 +2111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2422,7 +2143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2454,7 +2175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2486,7 +2207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2519,19 +2240,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2854,7 +2576,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3180,7 +2902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3506,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3832,7 +3554,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -4158,7 +3880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4484,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4810,7 +4532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -5136,7 +4858,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -5462,7 +5184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5788,7 +5510,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -6114,7 +5836,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -6440,7 +6162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -6766,7 +6488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -7092,7 +6814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -7418,7 +7140,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -7744,7 +7466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -8070,7 +7792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -8396,7 +8118,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -8722,7 +8444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -9048,7 +8770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -9375,19 +9097,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -9710,7 +9433,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -10036,7 +9759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -10362,7 +10085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -10688,7 +10411,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -11014,7 +10737,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -11340,7 +11063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -11666,7 +11389,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -11992,7 +11715,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -12318,7 +12041,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -12644,7 +12367,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -12970,7 +12693,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -13296,7 +13019,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -13622,7 +13345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -13948,7 +13671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -14274,7 +13997,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -14600,7 +14323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -14926,7 +14649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -15252,7 +14975,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -15578,7 +15301,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -15904,7 +15627,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -16231,19 +15954,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -16566,7 +16290,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -16892,7 +16616,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -17218,7 +16942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -17544,7 +17268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -17870,7 +17594,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -18196,7 +17920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -18522,7 +18246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -18848,7 +18572,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -19174,7 +18898,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -19500,7 +19224,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -19826,7 +19550,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -20152,7 +19876,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -20478,7 +20202,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -20804,7 +20528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -21130,7 +20854,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -21456,7 +21180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -21782,7 +21506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -22108,7 +21832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -22434,7 +22158,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -22760,7 +22484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -23087,19 +22811,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DD21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -23422,7 +23147,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -23748,7 +23473,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -24074,7 +23799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -24400,7 +24125,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -24726,7 +24451,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -25052,7 +24777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -25378,7 +25103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -25704,7 +25429,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -26030,7 +25755,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -26356,7 +26081,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -26682,7 +26407,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -27008,7 +26733,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -27334,7 +27059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -27660,7 +27385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -27986,7 +27711,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -28312,7 +28037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -28638,7 +28363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -28964,7 +28689,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -29290,7 +29015,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -29616,7 +29341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -29943,19 +29668,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -30032,7 +29758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -30112,7 +29838,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -30192,7 +29918,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -30272,7 +29998,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -30352,7 +30078,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -30432,7 +30158,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -30512,7 +30238,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -30592,7 +30318,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -30672,7 +30398,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -30752,7 +30478,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -30832,7 +30558,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -30912,7 +30638,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -30992,7 +30718,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -31072,7 +30798,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -31152,7 +30878,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -31232,7 +30958,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -31312,7 +31038,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -31392,7 +31118,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -31472,7 +31198,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -31552,7 +31278,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -31633,19 +31359,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>260</v>
       </c>
@@ -31719,36 +31446,36 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>129</v>
-      </c>
-      <c r="D2">
-        <v>147</v>
-      </c>
-      <c r="E2">
-        <v>276</v>
-      </c>
-      <c r="F2">
-        <v>49</v>
-      </c>
-      <c r="G2">
+      <c r="C2" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.7222222222222223</v>
       </c>
-      <c r="H2">
-        <v>41</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.1578947368421053</v>
       </c>
-      <c r="J2">
-        <v>90</v>
+      <c r="J2" t="n">
+        <v>90.0</v>
       </c>
       <c r="K2" t="s">
         <v>283</v>
@@ -31759,32 +31486,32 @@
       <c r="M2" t="s">
         <v>323</v>
       </c>
-      <c r="N2">
-        <v>37</v>
-      </c>
-      <c r="O2">
-        <v>65</v>
-      </c>
-      <c r="P2">
-        <v>77</v>
-      </c>
-      <c r="Q2">
-        <v>142</v>
-      </c>
-      <c r="R2">
-        <v>22</v>
-      </c>
-      <c r="S2">
+      <c r="N2" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.2222222222222223</v>
       </c>
-      <c r="T2">
-        <v>23</v>
-      </c>
-      <c r="U2">
+      <c r="T2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.2105263157894737</v>
       </c>
-      <c r="V2">
-        <v>45</v>
+      <c r="V2" t="n">
+        <v>45.0</v>
       </c>
       <c r="W2" t="s">
         <v>343</v>
@@ -31796,36 +31523,36 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>69</v>
-      </c>
-      <c r="E3">
-        <v>161</v>
-      </c>
-      <c r="F3">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
+      <c r="C3" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.1111111111111112</v>
       </c>
-      <c r="J3">
-        <v>39</v>
+      <c r="J3" t="n">
+        <v>39.0</v>
       </c>
       <c r="K3" t="s">
         <v>284</v>
@@ -31836,32 +31563,32 @@
       <c r="M3" t="s">
         <v>324</v>
       </c>
-      <c r="N3">
-        <v>37</v>
-      </c>
-      <c r="O3">
-        <v>120</v>
-      </c>
-      <c r="P3">
-        <v>99</v>
-      </c>
-      <c r="Q3">
-        <v>219</v>
-      </c>
-      <c r="R3">
-        <v>39</v>
-      </c>
-      <c r="S3">
+      <c r="N3" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.0526315789473686</v>
       </c>
-      <c r="T3">
-        <v>35</v>
-      </c>
-      <c r="U3">
+      <c r="T3" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.9444444444444444</v>
       </c>
-      <c r="V3">
-        <v>74</v>
+      <c r="V3" t="n">
+        <v>74.0</v>
       </c>
       <c r="W3" t="s">
         <v>344</v>
@@ -31873,36 +31600,36 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4">
-        <v>105</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>205</v>
-      </c>
-      <c r="F4">
-        <v>32</v>
-      </c>
-      <c r="G4">
+      <c r="C4" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.7777777777777777</v>
       </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="J4">
-        <v>48</v>
+      <c r="H4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>48.0</v>
       </c>
       <c r="K4" t="s">
         <v>285</v>
@@ -31913,32 +31640,32 @@
       <c r="M4" t="s">
         <v>325</v>
       </c>
-      <c r="N4">
-        <v>36</v>
-      </c>
-      <c r="O4">
-        <v>114</v>
-      </c>
-      <c r="P4">
-        <v>119</v>
-      </c>
-      <c r="Q4">
-        <v>233</v>
-      </c>
-      <c r="R4">
-        <v>29</v>
-      </c>
-      <c r="S4">
+      <c r="N4" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.6111111111111112</v>
       </c>
-      <c r="T4">
-        <v>30</v>
-      </c>
-      <c r="U4">
+      <c r="T4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V4">
-        <v>59</v>
+      <c r="V4" t="n">
+        <v>59.0</v>
       </c>
       <c r="W4" t="s">
         <v>345</v>
@@ -31950,36 +31677,36 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5">
-        <v>77</v>
-      </c>
-      <c r="D5">
-        <v>79</v>
-      </c>
-      <c r="E5">
-        <v>156</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5">
+      <c r="C5" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.2222222222222223</v>
       </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="J5">
-        <v>43</v>
+      <c r="H5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="J5" t="n">
+        <v>43.0</v>
       </c>
       <c r="K5" t="s">
         <v>286</v>
@@ -31990,32 +31717,32 @@
       <c r="M5" t="s">
         <v>326</v>
       </c>
-      <c r="N5">
-        <v>37</v>
-      </c>
-      <c r="O5">
-        <v>105</v>
-      </c>
-      <c r="P5">
-        <v>128</v>
-      </c>
-      <c r="Q5">
-        <v>233</v>
-      </c>
-      <c r="R5">
-        <v>31</v>
-      </c>
-      <c r="S5">
+      <c r="N5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.7222222222222223</v>
       </c>
-      <c r="T5">
-        <v>27</v>
-      </c>
-      <c r="U5">
+      <c r="T5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.4210526315789473</v>
       </c>
-      <c r="V5">
-        <v>58</v>
+      <c r="V5" t="n">
+        <v>58.0</v>
       </c>
       <c r="W5" t="s">
         <v>346</v>
@@ -32027,36 +31754,36 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6">
-        <v>77</v>
-      </c>
-      <c r="D6">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>141</v>
-      </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-      <c r="G6">
+      <c r="C6" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.2777777777777777</v>
       </c>
-      <c r="H6">
-        <v>22</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.1578947368421053</v>
       </c>
-      <c r="J6">
-        <v>45</v>
+      <c r="J6" t="n">
+        <v>45.0</v>
       </c>
       <c r="K6" t="s">
         <v>287</v>
@@ -32067,32 +31794,32 @@
       <c r="M6" t="s">
         <v>327</v>
       </c>
-      <c r="N6">
-        <v>37</v>
-      </c>
-      <c r="O6">
-        <v>109</v>
-      </c>
-      <c r="P6">
-        <v>146</v>
-      </c>
-      <c r="Q6">
-        <v>255</v>
-      </c>
-      <c r="R6">
-        <v>35</v>
-      </c>
-      <c r="S6">
+      <c r="N6" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.9444444444444444</v>
       </c>
-      <c r="T6">
-        <v>57</v>
-      </c>
-      <c r="U6">
-        <v>3</v>
-      </c>
-      <c r="V6">
-        <v>92</v>
+      <c r="T6" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>92.0</v>
       </c>
       <c r="W6" t="s">
         <v>347</v>
@@ -32104,36 +31831,36 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7">
-        <v>83</v>
-      </c>
-      <c r="D7">
-        <v>74</v>
-      </c>
-      <c r="E7">
-        <v>157</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-      <c r="G7">
+      <c r="C7" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.3157894736842106</v>
       </c>
-      <c r="H7">
-        <v>22</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.2222222222222223</v>
       </c>
-      <c r="J7">
-        <v>47</v>
+      <c r="J7" t="n">
+        <v>47.0</v>
       </c>
       <c r="K7" t="s">
         <v>288</v>
@@ -32144,32 +31871,32 @@
       <c r="M7" t="s">
         <v>328</v>
       </c>
-      <c r="N7">
-        <v>37</v>
-      </c>
-      <c r="O7">
-        <v>95</v>
-      </c>
-      <c r="P7">
-        <v>86</v>
-      </c>
-      <c r="Q7">
-        <v>181</v>
-      </c>
-      <c r="R7">
-        <v>25</v>
-      </c>
-      <c r="S7">
+      <c r="N7" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.3157894736842106</v>
       </c>
-      <c r="T7">
-        <v>34</v>
-      </c>
-      <c r="U7">
+      <c r="T7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.8888888888888888</v>
       </c>
-      <c r="V7">
-        <v>59</v>
+      <c r="V7" t="n">
+        <v>59.0</v>
       </c>
       <c r="W7" t="s">
         <v>348</v>
@@ -32181,36 +31908,36 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>64</v>
-      </c>
-      <c r="E8">
-        <v>144</v>
-      </c>
-      <c r="F8">
-        <v>29</v>
-      </c>
-      <c r="G8">
+      <c r="C8" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.5263157894736843</v>
       </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="J8">
-        <v>46</v>
+      <c r="H8" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="J8" t="n">
+        <v>46.0</v>
       </c>
       <c r="K8" t="s">
         <v>289</v>
@@ -32221,32 +31948,32 @@
       <c r="M8" t="s">
         <v>329</v>
       </c>
-      <c r="N8">
-        <v>37</v>
-      </c>
-      <c r="O8">
-        <v>98</v>
-      </c>
-      <c r="P8">
-        <v>128</v>
-      </c>
-      <c r="Q8">
-        <v>226</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
+      <c r="N8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.5789473684210527</v>
       </c>
-      <c r="T8">
-        <v>28</v>
-      </c>
-      <c r="U8">
+      <c r="T8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.5555555555555556</v>
       </c>
-      <c r="V8">
-        <v>58</v>
+      <c r="V8" t="n">
+        <v>58.0</v>
       </c>
       <c r="W8" t="s">
         <v>349</v>
@@ -32258,36 +31985,36 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9">
-        <v>116</v>
-      </c>
-      <c r="D9">
-        <v>122</v>
-      </c>
-      <c r="E9">
-        <v>238</v>
-      </c>
-      <c r="F9">
-        <v>48</v>
-      </c>
-      <c r="G9">
+      <c r="C9" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.6666666666666665</v>
       </c>
-      <c r="H9">
-        <v>36</v>
-      </c>
-      <c r="I9">
-        <v>1.8947368421052631</v>
-      </c>
-      <c r="J9">
-        <v>84</v>
+      <c r="H9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.894736842105263</v>
+      </c>
+      <c r="J9" t="n">
+        <v>84.0</v>
       </c>
       <c r="K9" t="s">
         <v>290</v>
@@ -32298,32 +32025,32 @@
       <c r="M9" t="s">
         <v>330</v>
       </c>
-      <c r="N9">
-        <v>37</v>
-      </c>
-      <c r="O9">
-        <v>68</v>
-      </c>
-      <c r="P9">
-        <v>73</v>
-      </c>
-      <c r="Q9">
-        <v>141</v>
-      </c>
-      <c r="R9">
-        <v>17</v>
-      </c>
-      <c r="S9">
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="T9">
-        <v>17</v>
-      </c>
-      <c r="U9">
-        <v>0.89473684210526316</v>
-      </c>
-      <c r="V9">
-        <v>34</v>
+      <c r="N9" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="T9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="V9" t="n">
+        <v>34.0</v>
       </c>
       <c r="W9" t="s">
         <v>350</v>
@@ -32335,36 +32062,36 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
-        <v>143</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>243</v>
-      </c>
-      <c r="F10">
-        <v>40</v>
-      </c>
-      <c r="G10">
+      <c r="C10" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.1052631578947367</v>
       </c>
-      <c r="H10">
-        <v>33</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.8333333333333333</v>
       </c>
-      <c r="J10">
-        <v>73</v>
+      <c r="J10" t="n">
+        <v>73.0</v>
       </c>
       <c r="K10" t="s">
         <v>291</v>
@@ -32375,32 +32102,32 @@
       <c r="M10" t="s">
         <v>331</v>
       </c>
-      <c r="N10">
-        <v>37</v>
-      </c>
-      <c r="O10">
-        <v>65</v>
-      </c>
-      <c r="P10">
-        <v>78</v>
-      </c>
-      <c r="Q10">
-        <v>143</v>
-      </c>
-      <c r="R10">
-        <v>18</v>
-      </c>
-      <c r="S10">
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="T10">
-        <v>19</v>
-      </c>
-      <c r="U10">
+      <c r="N10" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="T10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.0555555555555556</v>
       </c>
-      <c r="V10">
-        <v>37</v>
+      <c r="V10" t="n">
+        <v>37.0</v>
       </c>
       <c r="W10" t="s">
         <v>314</v>
@@ -32412,36 +32139,36 @@
         <v>383</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11">
-        <v>116</v>
-      </c>
-      <c r="D11">
-        <v>96</v>
-      </c>
-      <c r="E11">
-        <v>212</v>
-      </c>
-      <c r="F11">
-        <v>36</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>25</v>
-      </c>
-      <c r="I11">
+      <c r="C11" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.3888888888888888</v>
       </c>
-      <c r="J11">
-        <v>61</v>
+      <c r="J11" t="n">
+        <v>61.0</v>
       </c>
       <c r="K11" t="s">
         <v>292</v>
@@ -32452,32 +32179,32 @@
       <c r="M11" t="s">
         <v>332</v>
       </c>
-      <c r="N11">
-        <v>36</v>
-      </c>
-      <c r="O11">
-        <v>81</v>
-      </c>
-      <c r="P11">
-        <v>92</v>
-      </c>
-      <c r="Q11">
-        <v>173</v>
-      </c>
-      <c r="R11">
-        <v>23</v>
-      </c>
-      <c r="S11">
+      <c r="N11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.2777777777777777</v>
       </c>
-      <c r="T11">
-        <v>30</v>
-      </c>
-      <c r="U11">
+      <c r="T11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.6666666666666667</v>
       </c>
-      <c r="V11">
-        <v>53</v>
+      <c r="V11" t="n">
+        <v>53.0</v>
       </c>
       <c r="W11" t="s">
         <v>351</v>
@@ -32489,36 +32216,36 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>130</v>
-      </c>
-      <c r="D12">
-        <v>117</v>
-      </c>
-      <c r="E12">
-        <v>247</v>
-      </c>
-      <c r="F12">
-        <v>31</v>
-      </c>
-      <c r="G12">
+      <c r="C12" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.631578947368421</v>
       </c>
-      <c r="H12">
-        <v>41</v>
-      </c>
-      <c r="I12">
+      <c r="H12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.2777777777777777</v>
       </c>
-      <c r="J12">
-        <v>72</v>
+      <c r="J12" t="n">
+        <v>72.0</v>
       </c>
       <c r="K12" t="s">
         <v>293</v>
@@ -32529,32 +32256,32 @@
       <c r="M12" t="s">
         <v>333</v>
       </c>
-      <c r="N12">
-        <v>37</v>
-      </c>
-      <c r="O12">
-        <v>96</v>
-      </c>
-      <c r="P12">
-        <v>81</v>
-      </c>
-      <c r="Q12">
-        <v>177</v>
-      </c>
-      <c r="R12">
-        <v>24</v>
-      </c>
-      <c r="S12">
+      <c r="N12" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.263157894736842</v>
       </c>
-      <c r="T12">
-        <v>17</v>
-      </c>
-      <c r="U12">
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="V12">
-        <v>41</v>
+      <c r="T12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="V12" t="n">
+        <v>41.0</v>
       </c>
       <c r="W12" t="s">
         <v>350</v>
@@ -32566,36 +32293,36 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13">
-        <v>147</v>
-      </c>
-      <c r="D13">
-        <v>130</v>
-      </c>
-      <c r="E13">
-        <v>277</v>
-      </c>
-      <c r="F13">
-        <v>49</v>
-      </c>
-      <c r="G13">
+      <c r="C13" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>2.7222222222222223</v>
       </c>
-      <c r="H13">
-        <v>36</v>
-      </c>
-      <c r="I13">
-        <v>1.8947368421052631</v>
-      </c>
-      <c r="J13">
-        <v>85</v>
+      <c r="H13" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.894736842105263</v>
+      </c>
+      <c r="J13" t="n">
+        <v>85.0</v>
       </c>
       <c r="K13" t="s">
         <v>294</v>
@@ -32606,32 +32333,32 @@
       <c r="M13" t="s">
         <v>334</v>
       </c>
-      <c r="N13">
-        <v>37</v>
-      </c>
-      <c r="O13">
-        <v>70</v>
-      </c>
-      <c r="P13">
-        <v>76</v>
-      </c>
-      <c r="Q13">
-        <v>146</v>
-      </c>
-      <c r="R13">
-        <v>19</v>
-      </c>
-      <c r="S13">
+      <c r="N13" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.0555555555555556</v>
       </c>
-      <c r="T13">
-        <v>21</v>
-      </c>
-      <c r="U13">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="V13">
-        <v>40</v>
+      <c r="T13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="V13" t="n">
+        <v>40.0</v>
       </c>
       <c r="W13" t="s">
         <v>352</v>
@@ -32643,36 +32370,36 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14">
-        <v>87</v>
-      </c>
-      <c r="D14">
-        <v>66</v>
-      </c>
-      <c r="E14">
-        <v>153</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="H14">
-        <v>23</v>
-      </c>
-      <c r="I14">
+      <c r="C14" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1.2777777777777777</v>
       </c>
-      <c r="J14">
-        <v>39</v>
+      <c r="J14" t="n">
+        <v>39.0</v>
       </c>
       <c r="K14" t="s">
         <v>295</v>
@@ -32683,32 +32410,32 @@
       <c r="M14" t="s">
         <v>335</v>
       </c>
-      <c r="N14">
-        <v>37</v>
-      </c>
-      <c r="O14">
-        <v>121</v>
-      </c>
-      <c r="P14">
-        <v>116</v>
-      </c>
-      <c r="Q14">
-        <v>237</v>
-      </c>
-      <c r="R14">
-        <v>39</v>
-      </c>
-      <c r="S14">
+      <c r="N14" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.0526315789473686</v>
       </c>
-      <c r="T14">
-        <v>41</v>
-      </c>
-      <c r="U14">
+      <c r="T14" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.2777777777777777</v>
       </c>
-      <c r="V14">
-        <v>80</v>
+      <c r="V14" t="n">
+        <v>80.0</v>
       </c>
       <c r="W14" t="s">
         <v>353</v>
@@ -32720,36 +32447,36 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
-        <v>134</v>
-      </c>
-      <c r="D15">
-        <v>104</v>
-      </c>
-      <c r="E15">
-        <v>238</v>
-      </c>
-      <c r="F15">
-        <v>42</v>
-      </c>
-      <c r="G15">
-        <v>2.2105263157894739</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
-      </c>
-      <c r="I15">
+      <c r="C15" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.210526315789474</v>
+      </c>
+      <c r="H15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.3333333333333333</v>
       </c>
-      <c r="J15">
-        <v>66</v>
+      <c r="J15" t="n">
+        <v>66.0</v>
       </c>
       <c r="K15" t="s">
         <v>296</v>
@@ -32760,32 +32487,32 @@
       <c r="M15" t="s">
         <v>336</v>
       </c>
-      <c r="N15">
-        <v>37</v>
-      </c>
-      <c r="O15">
-        <v>78</v>
-      </c>
-      <c r="P15">
-        <v>109</v>
-      </c>
-      <c r="Q15">
-        <v>187</v>
-      </c>
-      <c r="R15">
-        <v>18</v>
-      </c>
-      <c r="S15">
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="T15">
-        <v>35</v>
-      </c>
-      <c r="U15">
+      <c r="N15" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="T15" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.9444444444444444</v>
       </c>
-      <c r="V15">
-        <v>53</v>
+      <c r="V15" t="n">
+        <v>53.0</v>
       </c>
       <c r="W15" t="s">
         <v>316</v>
@@ -32797,36 +32524,36 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
-        <v>89</v>
-      </c>
-      <c r="D16">
-        <v>79</v>
-      </c>
-      <c r="E16">
-        <v>168</v>
-      </c>
-      <c r="F16">
-        <v>29</v>
-      </c>
-      <c r="G16">
+      <c r="C16" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.6111111111111112</v>
       </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16">
+      <c r="H16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.0526315789473684</v>
       </c>
-      <c r="J16">
-        <v>49</v>
+      <c r="J16" t="n">
+        <v>49.0</v>
       </c>
       <c r="K16" t="s">
         <v>297</v>
@@ -32837,32 +32564,32 @@
       <c r="M16" t="s">
         <v>337</v>
       </c>
-      <c r="N16">
-        <v>37</v>
-      </c>
-      <c r="O16">
-        <v>108</v>
-      </c>
-      <c r="P16">
-        <v>114</v>
-      </c>
-      <c r="Q16">
-        <v>222</v>
-      </c>
-      <c r="R16">
-        <v>26</v>
-      </c>
-      <c r="S16">
+      <c r="N16" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.4444444444444444</v>
       </c>
-      <c r="T16">
-        <v>28</v>
-      </c>
-      <c r="U16">
+      <c r="T16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.4736842105263157</v>
       </c>
-      <c r="V16">
-        <v>54</v>
+      <c r="V16" t="n">
+        <v>54.0</v>
       </c>
       <c r="W16" t="s">
         <v>354</v>
@@ -32874,36 +32601,36 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
-        <v>107</v>
-      </c>
-      <c r="D17">
-        <v>105</v>
-      </c>
-      <c r="E17">
-        <v>212</v>
-      </c>
-      <c r="F17">
-        <v>29</v>
-      </c>
-      <c r="G17">
+      <c r="C17" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.6111111111111112</v>
       </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
-      <c r="I17">
+      <c r="H17" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.736842105263158</v>
       </c>
-      <c r="J17">
-        <v>62</v>
+      <c r="J17" t="n">
+        <v>62.0</v>
       </c>
       <c r="K17" t="s">
         <v>298</v>
@@ -32914,32 +32641,32 @@
       <c r="M17" t="s">
         <v>338</v>
       </c>
-      <c r="N17">
-        <v>37</v>
-      </c>
-      <c r="O17">
-        <v>102</v>
-      </c>
-      <c r="P17">
-        <v>136</v>
-      </c>
-      <c r="Q17">
-        <v>238</v>
-      </c>
-      <c r="R17">
-        <v>27</v>
-      </c>
-      <c r="S17">
+      <c r="N17" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.5</v>
       </c>
-      <c r="T17">
-        <v>29</v>
-      </c>
-      <c r="U17">
+      <c r="T17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.5263157894736843</v>
       </c>
-      <c r="V17">
-        <v>56</v>
+      <c r="V17" t="n">
+        <v>56.0</v>
       </c>
       <c r="W17" t="s">
         <v>355</v>
@@ -32951,36 +32678,36 @@
         <v>390</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18">
-        <v>87</v>
-      </c>
-      <c r="D18">
-        <v>75</v>
-      </c>
-      <c r="E18">
-        <v>162</v>
-      </c>
-      <c r="F18">
-        <v>26</v>
-      </c>
-      <c r="G18">
+      <c r="C18" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.4444444444444444</v>
       </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-      <c r="I18">
+      <c r="H18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.263157894736842</v>
       </c>
-      <c r="J18">
-        <v>50</v>
+      <c r="J18" t="n">
+        <v>50.0</v>
       </c>
       <c r="K18" t="s">
         <v>299</v>
@@ -32991,32 +32718,32 @@
       <c r="M18" t="s">
         <v>339</v>
       </c>
-      <c r="N18">
-        <v>37</v>
-      </c>
-      <c r="O18">
-        <v>86</v>
-      </c>
-      <c r="P18">
-        <v>113</v>
-      </c>
-      <c r="Q18">
-        <v>199</v>
-      </c>
-      <c r="R18">
-        <v>31</v>
-      </c>
-      <c r="S18">
+      <c r="N18" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.7222222222222223</v>
       </c>
-      <c r="T18">
-        <v>39</v>
-      </c>
-      <c r="U18">
+      <c r="T18" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.0526315789473686</v>
       </c>
-      <c r="V18">
-        <v>70</v>
+      <c r="V18" t="n">
+        <v>70.0</v>
       </c>
       <c r="W18" t="s">
         <v>356</v>
@@ -33028,36 +32755,36 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>91</v>
-      </c>
-      <c r="E19">
-        <v>191</v>
-      </c>
-      <c r="F19">
-        <v>24</v>
-      </c>
-      <c r="G19">
+      <c r="C19" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H19">
-        <v>25</v>
-      </c>
-      <c r="I19">
+      <c r="H19" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.3888888888888888</v>
       </c>
-      <c r="J19">
-        <v>49</v>
+      <c r="J19" t="n">
+        <v>49.0</v>
       </c>
       <c r="K19" t="s">
         <v>300</v>
@@ -33068,32 +32795,32 @@
       <c r="M19" t="s">
         <v>340</v>
       </c>
-      <c r="N19">
-        <v>36</v>
-      </c>
-      <c r="O19">
-        <v>90</v>
-      </c>
-      <c r="P19">
-        <v>107</v>
-      </c>
-      <c r="Q19">
-        <v>197</v>
-      </c>
-      <c r="R19">
-        <v>35</v>
-      </c>
-      <c r="S19">
+      <c r="N19" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.9444444444444444</v>
       </c>
-      <c r="T19">
-        <v>33</v>
-      </c>
-      <c r="U19">
+      <c r="T19" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.8333333333333333</v>
       </c>
-      <c r="V19">
-        <v>68</v>
+      <c r="V19" t="n">
+        <v>68.0</v>
       </c>
       <c r="W19" t="s">
         <v>357</v>
@@ -33105,36 +32832,36 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20">
-        <v>82</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="E20">
-        <v>162</v>
-      </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="H20">
-        <v>27</v>
-      </c>
-      <c r="I20">
+      <c r="C20" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="H20" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.5</v>
       </c>
-      <c r="J20">
-        <v>41</v>
+      <c r="J20" t="n">
+        <v>41.0</v>
       </c>
       <c r="K20" t="s">
         <v>301</v>
@@ -33145,32 +32872,32 @@
       <c r="M20" t="s">
         <v>341</v>
       </c>
-      <c r="N20">
-        <v>37</v>
-      </c>
-      <c r="O20">
-        <v>70</v>
-      </c>
-      <c r="P20">
-        <v>109</v>
-      </c>
-      <c r="Q20">
-        <v>179</v>
-      </c>
-      <c r="R20">
-        <v>19</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>34</v>
-      </c>
-      <c r="U20">
+      <c r="N20" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.8888888888888888</v>
       </c>
-      <c r="V20">
-        <v>53</v>
+      <c r="V20" t="n">
+        <v>53.0</v>
       </c>
       <c r="W20" t="s">
         <v>352</v>
@@ -33182,36 +32909,36 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21">
-        <v>97</v>
-      </c>
-      <c r="D21">
-        <v>62</v>
-      </c>
-      <c r="E21">
-        <v>159</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>22</v>
-      </c>
-      <c r="I21">
+      <c r="C21" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.2222222222222223</v>
       </c>
-      <c r="J21">
-        <v>40</v>
+      <c r="J21" t="n">
+        <v>40.0</v>
       </c>
       <c r="K21" t="s">
         <v>302</v>
@@ -33222,32 +32949,32 @@
       <c r="M21" t="s">
         <v>342</v>
       </c>
-      <c r="N21">
-        <v>36</v>
-      </c>
-      <c r="O21">
-        <v>83</v>
-      </c>
-      <c r="P21">
-        <v>91</v>
-      </c>
-      <c r="Q21">
-        <v>174</v>
-      </c>
-      <c r="R21">
-        <v>21</v>
-      </c>
-      <c r="S21">
+      <c r="N21" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.1666666666666667</v>
       </c>
-      <c r="T21">
-        <v>24</v>
-      </c>
-      <c r="U21">
+      <c r="T21" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.3333333333333333</v>
       </c>
-      <c r="V21">
-        <v>45</v>
+      <c r="V21" t="n">
+        <v>45.0</v>
       </c>
       <c r="W21" t="s">
         <v>358</v>
@@ -33260,28 +32987,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="A21:XFD21 A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="56.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>395</v>
       </c>
@@ -33298,7 +33017,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -33318,7 +33037,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -33338,7 +33057,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -33358,7 +33077,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -33378,7 +33097,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -33398,7 +33117,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -33418,7 +33137,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -33438,7 +33157,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -33458,7 +33177,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -33478,7 +33197,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -33498,7 +33217,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -33518,7 +33237,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -33538,7 +33257,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -33558,7 +33277,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -33578,7 +33297,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -33598,7 +33317,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -33618,7 +33337,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -33638,7 +33357,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -33658,7 +33377,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -33678,7 +33397,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -33699,6 +33418,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Divisions/I1.xlsx
+++ b/Divisions/I1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10131" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10299" uniqueCount="499">
   <si>
     <t>Team</t>
   </si>
@@ -171,528 +171,531 @@
     <t>37</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>-41</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>X2020.09.19</t>
+  </si>
+  <si>
+    <t>X2020.09.20</t>
+  </si>
+  <si>
+    <t>X2020.09.21</t>
+  </si>
+  <si>
+    <t>X2020.09.26</t>
+  </si>
+  <si>
+    <t>X2020.09.27</t>
+  </si>
+  <si>
+    <t>X2020.09.28</t>
+  </si>
+  <si>
+    <t>X2020.09.30</t>
+  </si>
+  <si>
+    <t>X2020.10.02</t>
+  </si>
+  <si>
+    <t>X2020.10.03</t>
+  </si>
+  <si>
+    <t>X2020.10.04</t>
+  </si>
+  <si>
+    <t>X2020.10.17</t>
+  </si>
+  <si>
+    <t>X2020.10.18</t>
+  </si>
+  <si>
+    <t>X2020.10.19</t>
+  </si>
+  <si>
+    <t>X2020.10.23</t>
+  </si>
+  <si>
+    <t>X2020.10.24</t>
+  </si>
+  <si>
+    <t>X2020.10.25</t>
+  </si>
+  <si>
+    <t>X2020.10.26</t>
+  </si>
+  <si>
+    <t>X2020.10.31</t>
+  </si>
+  <si>
+    <t>X2020.11.01</t>
+  </si>
+  <si>
+    <t>X2020.11.02</t>
+  </si>
+  <si>
+    <t>X2020.11.04</t>
+  </si>
+  <si>
+    <t>X2020.11.06</t>
+  </si>
+  <si>
+    <t>X2020.11.07</t>
+  </si>
+  <si>
+    <t>X2020.11.08</t>
+  </si>
+  <si>
+    <t>X2020.11.21</t>
+  </si>
+  <si>
+    <t>X2020.11.22</t>
+  </si>
+  <si>
+    <t>X2020.11.28</t>
+  </si>
+  <si>
+    <t>X2020.11.29</t>
+  </si>
+  <si>
+    <t>X2020.11.30</t>
+  </si>
+  <si>
+    <t>X2020.12.05</t>
+  </si>
+  <si>
+    <t>X2020.12.06</t>
+  </si>
+  <si>
+    <t>X2020.12.07</t>
+  </si>
+  <si>
+    <t>X2020.12.11</t>
+  </si>
+  <si>
+    <t>X2020.12.12</t>
+  </si>
+  <si>
+    <t>X2020.12.13</t>
+  </si>
+  <si>
+    <t>X2020.12.15</t>
+  </si>
+  <si>
+    <t>X2020.12.16</t>
+  </si>
+  <si>
+    <t>X2020.12.17</t>
+  </si>
+  <si>
+    <t>X2020.12.19</t>
+  </si>
+  <si>
+    <t>X2020.12.20</t>
+  </si>
+  <si>
+    <t>X2020.12.22</t>
+  </si>
+  <si>
+    <t>X2020.12.23</t>
+  </si>
+  <si>
+    <t>X2021.01.03</t>
+  </si>
+  <si>
+    <t>X2021.01.06</t>
+  </si>
+  <si>
+    <t>X2021.01.09</t>
+  </si>
+  <si>
+    <t>X2021.01.10</t>
+  </si>
+  <si>
+    <t>X2021.01.11</t>
+  </si>
+  <si>
+    <t>X2021.01.15</t>
+  </si>
+  <si>
+    <t>X2021.01.16</t>
+  </si>
+  <si>
+    <t>X2021.01.17</t>
+  </si>
+  <si>
+    <t>X2021.01.18</t>
+  </si>
+  <si>
+    <t>X2021.01.20</t>
+  </si>
+  <si>
+    <t>X2021.01.22</t>
+  </si>
+  <si>
+    <t>X2021.01.23</t>
+  </si>
+  <si>
+    <t>X2021.01.24</t>
+  </si>
+  <si>
+    <t>X2021.01.29</t>
+  </si>
+  <si>
+    <t>X2021.01.30</t>
+  </si>
+  <si>
+    <t>X2021.01.31</t>
+  </si>
+  <si>
+    <t>X2021.02.05</t>
+  </si>
+  <si>
+    <t>X2021.02.06</t>
+  </si>
+  <si>
+    <t>X2021.02.07</t>
+  </si>
+  <si>
+    <t>X2021.02.12</t>
+  </si>
+  <si>
+    <t>X2021.02.13</t>
+  </si>
+  <si>
+    <t>X2021.02.14</t>
+  </si>
+  <si>
+    <t>X2021.02.15</t>
+  </si>
+  <si>
+    <t>X2021.02.19</t>
+  </si>
+  <si>
+    <t>X2021.02.20</t>
+  </si>
+  <si>
+    <t>X2021.02.21</t>
+  </si>
+  <si>
+    <t>X2021.02.22</t>
+  </si>
+  <si>
+    <t>X2021.02.27</t>
+  </si>
+  <si>
+    <t>X2021.02.28</t>
+  </si>
+  <si>
+    <t>X2021.03.02</t>
+  </si>
+  <si>
+    <t>X2021.03.03</t>
+  </si>
+  <si>
+    <t>X2021.03.04</t>
+  </si>
+  <si>
+    <t>X2021.03.06</t>
+  </si>
+  <si>
+    <t>X2021.03.07</t>
+  </si>
+  <si>
+    <t>X2021.03.08</t>
+  </si>
+  <si>
+    <t>X2021.03.12</t>
+  </si>
+  <si>
+    <t>X2021.03.13</t>
+  </si>
+  <si>
+    <t>X2021.03.14</t>
+  </si>
+  <si>
+    <t>X2021.03.17</t>
+  </si>
+  <si>
+    <t>X2021.03.19</t>
+  </si>
+  <si>
+    <t>X2021.03.20</t>
+  </si>
+  <si>
+    <t>X2021.03.21</t>
+  </si>
+  <si>
+    <t>X2021.04.03</t>
+  </si>
+  <si>
+    <t>X2021.04.07</t>
+  </si>
+  <si>
+    <t>X2021.04.10</t>
+  </si>
+  <si>
+    <t>X2021.04.11</t>
+  </si>
+  <si>
+    <t>X2021.04.12</t>
+  </si>
+  <si>
+    <t>X2021.04.17</t>
+  </si>
+  <si>
+    <t>X2021.04.18</t>
+  </si>
+  <si>
+    <t>X2021.04.20</t>
+  </si>
+  <si>
+    <t>X2021.04.21</t>
+  </si>
+  <si>
+    <t>X2021.04.22</t>
+  </si>
+  <si>
+    <t>X2021.04.24</t>
+  </si>
+  <si>
+    <t>X2021.04.25</t>
+  </si>
+  <si>
+    <t>X2021.04.26</t>
+  </si>
+  <si>
+    <t>X2021.05.01</t>
+  </si>
+  <si>
+    <t>X2021.05.02</t>
+  </si>
+  <si>
+    <t>X2021.05.03</t>
+  </si>
+  <si>
+    <t>X2021.05.08</t>
+  </si>
+  <si>
+    <t>X2021.05.09</t>
+  </si>
+  <si>
+    <t>X2021.05.11</t>
+  </si>
+  <si>
+    <t>X2021.05.12</t>
+  </si>
+  <si>
+    <t>X2021.05.13</t>
+  </si>
+  <si>
+    <t>X2021.05.15</t>
+  </si>
+  <si>
+    <t>X2021.05.16</t>
+  </si>
+  <si>
+    <t>X2021.05.17</t>
+  </si>
+  <si>
+    <t>X2021.05.18</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>i1_hgtotals</t>
+  </si>
+  <si>
+    <t>i1_agtotals</t>
+  </si>
+  <si>
+    <t>i1_totalgoals</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>-15</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-35</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>-41</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>X2020.09.19</t>
-  </si>
-  <si>
-    <t>X2020.09.20</t>
-  </si>
-  <si>
-    <t>X2020.09.21</t>
-  </si>
-  <si>
-    <t>X2020.09.26</t>
-  </si>
-  <si>
-    <t>X2020.09.27</t>
-  </si>
-  <si>
-    <t>X2020.09.28</t>
-  </si>
-  <si>
-    <t>X2020.09.30</t>
-  </si>
-  <si>
-    <t>X2020.10.02</t>
-  </si>
-  <si>
-    <t>X2020.10.03</t>
-  </si>
-  <si>
-    <t>X2020.10.04</t>
-  </si>
-  <si>
-    <t>X2020.10.17</t>
-  </si>
-  <si>
-    <t>X2020.10.18</t>
-  </si>
-  <si>
-    <t>X2020.10.19</t>
-  </si>
-  <si>
-    <t>X2020.10.23</t>
-  </si>
-  <si>
-    <t>X2020.10.24</t>
-  </si>
-  <si>
-    <t>X2020.10.25</t>
-  </si>
-  <si>
-    <t>X2020.10.26</t>
-  </si>
-  <si>
-    <t>X2020.10.31</t>
-  </si>
-  <si>
-    <t>X2020.11.01</t>
-  </si>
-  <si>
-    <t>X2020.11.02</t>
-  </si>
-  <si>
-    <t>X2020.11.04</t>
-  </si>
-  <si>
-    <t>X2020.11.06</t>
-  </si>
-  <si>
-    <t>X2020.11.07</t>
-  </si>
-  <si>
-    <t>X2020.11.08</t>
-  </si>
-  <si>
-    <t>X2020.11.21</t>
-  </si>
-  <si>
-    <t>X2020.11.22</t>
-  </si>
-  <si>
-    <t>X2020.11.28</t>
-  </si>
-  <si>
-    <t>X2020.11.29</t>
-  </si>
-  <si>
-    <t>X2020.11.30</t>
-  </si>
-  <si>
-    <t>X2020.12.05</t>
-  </si>
-  <si>
-    <t>X2020.12.06</t>
-  </si>
-  <si>
-    <t>X2020.12.07</t>
-  </si>
-  <si>
-    <t>X2020.12.11</t>
-  </si>
-  <si>
-    <t>X2020.12.12</t>
-  </si>
-  <si>
-    <t>X2020.12.13</t>
-  </si>
-  <si>
-    <t>X2020.12.15</t>
-  </si>
-  <si>
-    <t>X2020.12.16</t>
-  </si>
-  <si>
-    <t>X2020.12.17</t>
-  </si>
-  <si>
-    <t>X2020.12.19</t>
-  </si>
-  <si>
-    <t>X2020.12.20</t>
-  </si>
-  <si>
-    <t>X2020.12.22</t>
-  </si>
-  <si>
-    <t>X2020.12.23</t>
-  </si>
-  <si>
-    <t>X2021.01.03</t>
-  </si>
-  <si>
-    <t>X2021.01.06</t>
-  </si>
-  <si>
-    <t>X2021.01.09</t>
-  </si>
-  <si>
-    <t>X2021.01.10</t>
-  </si>
-  <si>
-    <t>X2021.01.11</t>
-  </si>
-  <si>
-    <t>X2021.01.15</t>
-  </si>
-  <si>
-    <t>X2021.01.16</t>
-  </si>
-  <si>
-    <t>X2021.01.17</t>
-  </si>
-  <si>
-    <t>X2021.01.18</t>
-  </si>
-  <si>
-    <t>X2021.01.20</t>
-  </si>
-  <si>
-    <t>X2021.01.22</t>
-  </si>
-  <si>
-    <t>X2021.01.23</t>
-  </si>
-  <si>
-    <t>X2021.01.24</t>
-  </si>
-  <si>
-    <t>X2021.01.29</t>
-  </si>
-  <si>
-    <t>X2021.01.30</t>
-  </si>
-  <si>
-    <t>X2021.01.31</t>
-  </si>
-  <si>
-    <t>X2021.02.05</t>
-  </si>
-  <si>
-    <t>X2021.02.06</t>
-  </si>
-  <si>
-    <t>X2021.02.07</t>
-  </si>
-  <si>
-    <t>X2021.02.12</t>
-  </si>
-  <si>
-    <t>X2021.02.13</t>
-  </si>
-  <si>
-    <t>X2021.02.14</t>
-  </si>
-  <si>
-    <t>X2021.02.15</t>
-  </si>
-  <si>
-    <t>X2021.02.19</t>
-  </si>
-  <si>
-    <t>X2021.02.20</t>
-  </si>
-  <si>
-    <t>X2021.02.21</t>
-  </si>
-  <si>
-    <t>X2021.02.22</t>
-  </si>
-  <si>
-    <t>X2021.02.27</t>
-  </si>
-  <si>
-    <t>X2021.02.28</t>
-  </si>
-  <si>
-    <t>X2021.03.02</t>
-  </si>
-  <si>
-    <t>X2021.03.03</t>
-  </si>
-  <si>
-    <t>X2021.03.04</t>
-  </si>
-  <si>
-    <t>X2021.03.06</t>
-  </si>
-  <si>
-    <t>X2021.03.07</t>
-  </si>
-  <si>
-    <t>X2021.03.08</t>
-  </si>
-  <si>
-    <t>X2021.03.12</t>
-  </si>
-  <si>
-    <t>X2021.03.13</t>
-  </si>
-  <si>
-    <t>X2021.03.14</t>
-  </si>
-  <si>
-    <t>X2021.03.17</t>
-  </si>
-  <si>
-    <t>X2021.03.19</t>
-  </si>
-  <si>
-    <t>X2021.03.20</t>
-  </si>
-  <si>
-    <t>X2021.03.21</t>
-  </si>
-  <si>
-    <t>X2021.04.03</t>
-  </si>
-  <si>
-    <t>X2021.04.07</t>
-  </si>
-  <si>
-    <t>X2021.04.10</t>
-  </si>
-  <si>
-    <t>X2021.04.11</t>
-  </si>
-  <si>
-    <t>X2021.04.12</t>
-  </si>
-  <si>
-    <t>X2021.04.17</t>
-  </si>
-  <si>
-    <t>X2021.04.18</t>
-  </si>
-  <si>
-    <t>X2021.04.20</t>
-  </si>
-  <si>
-    <t>X2021.04.21</t>
-  </si>
-  <si>
-    <t>X2021.04.22</t>
-  </si>
-  <si>
-    <t>X2021.04.24</t>
-  </si>
-  <si>
-    <t>X2021.04.25</t>
-  </si>
-  <si>
-    <t>X2021.04.26</t>
-  </si>
-  <si>
-    <t>X2021.05.01</t>
-  </si>
-  <si>
-    <t>X2021.05.02</t>
-  </si>
-  <si>
-    <t>X2021.05.03</t>
-  </si>
-  <si>
-    <t>X2021.05.08</t>
-  </si>
-  <si>
-    <t>X2021.05.09</t>
-  </si>
-  <si>
-    <t>X2021.05.11</t>
-  </si>
-  <si>
-    <t>X2021.05.12</t>
-  </si>
-  <si>
-    <t>X2021.05.13</t>
-  </si>
-  <si>
-    <t>X2021.05.15</t>
-  </si>
-  <si>
-    <t>X2021.05.16</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>i1_hgtotals</t>
-  </si>
-  <si>
-    <t>i1_agtotals</t>
-  </si>
-  <si>
-    <t>i1_totalgoals</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -708,7 +711,7 @@
     <t>113</t>
   </si>
   <si>
-    <t>107</t>
+    <t>111</t>
   </si>
   <si>
     <t>101</t>
@@ -750,15 +753,15 @@
     <t>94</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>3.6486</t>
   </si>
   <si>
     <t>3.0541</t>
   </si>
   <si>
-    <t>2.9722</t>
-  </si>
-  <si>
     <t>2.7297</t>
   </si>
   <si>
@@ -777,7 +780,7 @@
     <t>2.973</t>
   </si>
   <si>
-    <t>3.1667</t>
+    <t>3.0811</t>
   </si>
   <si>
     <t>3.3784</t>
@@ -792,13 +795,13 @@
     <t>3.2432</t>
   </si>
   <si>
-    <t>3.25</t>
+    <t>3.1622</t>
   </si>
   <si>
     <t>2.5405</t>
   </si>
   <si>
-    <t>2.3611</t>
+    <t>2.4054</t>
   </si>
   <si>
     <t>Group.1</t>
@@ -897,7 +900,7 @@
     <t>27.97%</t>
   </si>
   <si>
-    <t>31.03%</t>
+    <t>28.35%</t>
   </si>
   <si>
     <t>23.85%</t>
@@ -927,7 +930,7 @@
     <t>17.07%</t>
   </si>
   <si>
-    <t>18.56%</t>
+    <t>19.61%</t>
   </si>
   <si>
     <t>27.89%</t>
@@ -936,7 +939,7 @@
     <t>28.99%</t>
   </si>
   <si>
-    <t>16.00%</t>
+    <t>17.14%</t>
   </si>
   <si>
     <t>26.58%</t>
@@ -981,7 +984,7 @@
     <t>32.00%</t>
   </si>
   <si>
-    <t>27.47%</t>
+    <t>26.32%</t>
   </si>
   <si>
     <t>33.75%</t>
@@ -996,7 +999,7 @@
     <t>24.22%</t>
   </si>
   <si>
-    <t>23.41%</t>
+    <t>23.81%</t>
   </si>
   <si>
     <t>27.56%</t>
@@ -1017,7 +1020,7 @@
     <t>30.04%</t>
   </si>
   <si>
-    <t>28.77%</t>
+    <t>27.35%</t>
   </si>
   <si>
     <t>29.15%</t>
@@ -1041,13 +1044,13 @@
     <t>30.86%</t>
   </si>
   <si>
-    <t>25.65%</t>
+    <t>25.13%</t>
   </si>
   <si>
     <t>25.31%</t>
   </si>
   <si>
-    <t>25.16%</t>
+    <t>25.61%</t>
   </si>
   <si>
     <t>33.85%</t>
@@ -1065,16 +1068,13 @@
     <t>32.11%</t>
   </si>
   <si>
-    <t>26.32%</t>
-  </si>
-  <si>
     <t>30.61%</t>
   </si>
   <si>
     <t>25.00%</t>
   </si>
   <si>
-    <t>28.40%</t>
+    <t>27.06%</t>
   </si>
   <si>
     <t>27.14%</t>
@@ -1095,13 +1095,13 @@
     <t>38.89%</t>
   </si>
   <si>
-    <t>25.30%</t>
+    <t>26.14%</t>
   </si>
   <si>
     <t>35.35%</t>
   </si>
   <si>
-    <t>25.21%</t>
+    <t>25.81%</t>
   </si>
   <si>
     <t>21.09%</t>
@@ -1140,9 +1140,6 @@
     <t>34.51%</t>
   </si>
   <si>
-    <t>30.84%</t>
-  </si>
-  <si>
     <t>31.19%</t>
   </si>
   <si>
@@ -1155,6 +1152,9 @@
     <t>33.79%</t>
   </si>
   <si>
+    <t>25.63%</t>
+  </si>
+  <si>
     <t>24.89%</t>
   </si>
   <si>
@@ -1173,9 +1173,6 @@
     <t>25.87%</t>
   </si>
   <si>
-    <t>30.64%</t>
-  </si>
-  <si>
     <t>23.16%</t>
   </si>
   <si>
@@ -1197,13 +1194,13 @@
     <t>35.18%</t>
   </si>
   <si>
-    <t>34.52%</t>
+    <t>32.69%</t>
   </si>
   <si>
     <t>29.61%</t>
   </si>
   <si>
-    <t>25.86%</t>
+    <t>26.26%</t>
   </si>
   <si>
     <t>Form</t>
@@ -1227,7 +1224,7 @@
     <t>Benevento,D L L L L D</t>
   </si>
   <si>
-    <t>Bologna,W D L D D L</t>
+    <t>Bologna,D L D D L D</t>
   </si>
   <si>
     <t>Cagliari,W W D W D D</t>
@@ -1248,7 +1245,7 @@
     <t>Juventus,W D W L W W</t>
   </si>
   <si>
-    <t>Lazio,L W W L W L</t>
+    <t>Lazio,W W L W L D</t>
   </si>
   <si>
     <t>Milan,L L W W W D</t>
@@ -1272,13 +1269,13 @@
     <t>Spezia,D L D L D W</t>
   </si>
   <si>
-    <t>Torino,D L W D L L</t>
+    <t>Torino,L W D L L D</t>
   </si>
   <si>
     <t>Udinese,L W L D L L</t>
   </si>
   <si>
-    <t>Verona,L L L D D L</t>
+    <t>Verona,L L D D L D</t>
   </si>
   <si>
     <t>Atalanta,1 5 1 5 2 4,(18)</t>
@@ -1287,7 +1284,7 @@
     <t>Benevento,2 2 0 1 0 1,(6)</t>
   </si>
   <si>
-    <t>Bologna,4 1 0 3 1 0,(9)</t>
+    <t>Bologna,1 0 3 1 0 2,(7)</t>
   </si>
   <si>
     <t>Cagliari,1 3 1 3 0 0,(8)</t>
@@ -1308,7 +1305,7 @@
     <t>Juventus,3 1 2 0 3 3,(12)</t>
   </si>
   <si>
-    <t>Lazio,2 3 4 0 1 0,(10)</t>
+    <t>Lazio,3 4 0 1 0 0,(8)</t>
   </si>
   <si>
     <t>Milan,1 0 2 3 7 0,(13)</t>
@@ -1332,13 +1329,13 @@
     <t>Spezia,1 0 1 1 2 4,(9)</t>
   </si>
   <si>
-    <t>Torino,1 0 1 1 0 1,(4)</t>
+    <t>Torino,0 1 1 0 1 0,(3)</t>
   </si>
   <si>
     <t>Udinese,0 4 1 1 1 0,(7)</t>
   </si>
   <si>
-    <t>Verona,1 1 0 1 1 1,(5)</t>
+    <t>Verona,1 0 1 1 1 2,(6)</t>
   </si>
   <si>
     <t>Atalanta,1 0 1 2 0 3,(7)</t>
@@ -1347,7 +1344,7 @@
     <t>Benevento,2 4 2 3 2 1,(14)</t>
   </si>
   <si>
-    <t>Bologna,1 1 5 3 1 2,(13)</t>
+    <t>Bologna,1 5 3 1 2 2,(14)</t>
   </si>
   <si>
     <t>Cagliari,0 2 1 1 0 0,(4)</t>
@@ -1368,7 +1365,7 @@
     <t>Juventus,1 1 1 3 1 2,(9)</t>
   </si>
   <si>
-    <t>Lazio,5 0 3 2 0 2,(12)</t>
+    <t>Lazio,0 3 2 0 2 0,(7)</t>
   </si>
   <si>
     <t>Milan,2 3 0 0 0 0,(5)</t>
@@ -1392,13 +1389,13 @@
     <t>Spezia,1 2 1 4 2 1,(11)</t>
   </si>
   <si>
-    <t>Torino,1 2 0 1 7 4,(15)</t>
+    <t>Torino,2 0 1 7 4 0,(14)</t>
   </si>
   <si>
     <t>Udinese,1 2 2 1 5 1,(12)</t>
   </si>
   <si>
-    <t>Verona,3 2 1 1 1 2,(10)</t>
+    <t>Verona,2 1 1 1 2 2,(9)</t>
   </si>
   <si>
     <t>Atalanta,2 5 2 7 2 7,(25)</t>
@@ -1407,7 +1404,7 @@
     <t>Benevento,4 6 2 4 2 2,(20)</t>
   </si>
   <si>
-    <t>Bologna,5 2 5 6 2 2,(22)</t>
+    <t>Bologna,2 5 6 2 2 4,(21)</t>
   </si>
   <si>
     <t>Cagliari,1 5 2 4 0 0,(12)</t>
@@ -1428,7 +1425,7 @@
     <t>Juventus,4 2 3 3 4 5,(21)</t>
   </si>
   <si>
-    <t>Lazio,7 3 7 2 1 2,(22)</t>
+    <t>Lazio,3 7 2 1 2 0,(15)</t>
   </si>
   <si>
     <t>Milan,3 3 2 3 7 0,(18)</t>
@@ -1452,13 +1449,13 @@
     <t>Spezia,2 2 2 5 4 5,(20)</t>
   </si>
   <si>
-    <t>Torino,2 2 1 2 7 5,(19)</t>
+    <t>Torino,2 1 2 7 5 0,(17)</t>
   </si>
   <si>
     <t>Udinese,1 6 3 2 6 1,(19)</t>
   </si>
   <si>
-    <t>Verona,4 3 1 2 2 3,(15)</t>
+    <t>Verona,3 1 2 2 3 4,(15)</t>
   </si>
   <si>
     <t>Atalanta,Roma Bologna Sassuolo Parma Benevento Genoa</t>
@@ -1467,7 +1464,7 @@
     <t>Benevento,Genoa Udinese Milan Cagliari Atalanta Crotone</t>
   </si>
   <si>
-    <t>Bologna,Spezia Torino Atalanta Fiorentina Udinese Genoa</t>
+    <t>Bologna,Torino Atalanta Fiorentina Udinese Genoa Verona</t>
   </si>
   <si>
     <t>Cagliari,Udinese Roma Napoli Benevento Fiorentina Milan</t>
@@ -1488,7 +1485,7 @@
     <t>Juventus,Parma Fiorentina Udinese Milan Sassuolo Inter</t>
   </si>
   <si>
-    <t>Lazio,Napoli Milan Genoa Fiorentina Parma Roma</t>
+    <t>Lazio,Milan Genoa Fiorentina Parma Roma Torino</t>
   </si>
   <si>
     <t>Milan,Sassuolo Lazio Benevento Juventus Torino Cagliari</t>
@@ -1512,13 +1509,13 @@
     <t>Spezia,Inter Genoa Verona Napoli Sampdoria Torino</t>
   </si>
   <si>
-    <t>Torino,Bologna Napoli Parma Verona Milan Spezia</t>
+    <t>Torino,Napoli Parma Verona Milan Spezia Lazio</t>
   </si>
   <si>
     <t>Udinese,Cagliari Benevento Juventus Bologna Napoli Sampdoria</t>
   </si>
   <si>
-    <t>Verona,Sampdoria Fiorentina Inter Spezia Torino Crotone</t>
+    <t>Verona,Fiorentina Inter Spezia Torino Crotone Bologna</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1607,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1619,13 +1616,13 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>95</v>
@@ -1642,7 +1639,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1651,13 +1648,13 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
         <v>96</v>
@@ -1674,7 +1671,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1683,13 +1680,13 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
         <v>97</v>
@@ -1706,7 +1703,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1715,13 +1712,13 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
         <v>97</v>
@@ -1738,7 +1735,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1747,13 +1744,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
         <v>98</v>
@@ -1767,28 +1764,28 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1811,16 +1808,16 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1843,16 +1840,16 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1875,16 +1872,16 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
         <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1895,28 +1892,28 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
         <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1927,28 +1924,28 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
         <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -1971,16 +1968,16 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
         <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -2003,16 +2000,16 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
         <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2035,16 +2032,16 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2067,16 +2064,16 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
         <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -2099,10 +2096,10 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
         <v>90</v>
@@ -2119,28 +2116,28 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
         <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2163,16 +2160,16 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
         <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -2192,19 +2189,19 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
         <v>93</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -2224,13 +2221,13 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>94</v>
@@ -2255,324 +2252,330 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>134</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>135</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>136</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>137</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>138</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>139</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>140</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>145</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>147</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>148</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>150</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>151</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>153</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>154</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>155</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>158</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>161</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>163</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>165</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>166</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>170</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>172</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>173</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>174</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>175</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>176</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>179</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>180</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>181</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>182</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>185</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>205</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>206</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>207</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>208</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2901,6 +2904,12 @@
       <c r="DD2" t="s">
         <v>210</v>
       </c>
+      <c r="DE2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -3227,6 +3236,12 @@
       <c r="DD3" t="s">
         <v>3</v>
       </c>
+      <c r="DE3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3553,6 +3568,12 @@
       <c r="DD4" t="s">
         <v>210</v>
       </c>
+      <c r="DE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3879,6 +3900,12 @@
       <c r="DD5" t="s">
         <v>3</v>
       </c>
+      <c r="DE5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -4205,6 +4232,12 @@
       <c r="DD6" t="s">
         <v>3</v>
       </c>
+      <c r="DE6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -4531,6 +4564,12 @@
       <c r="DD7" t="s">
         <v>4</v>
       </c>
+      <c r="DE7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -4857,6 +4896,12 @@
       <c r="DD8" t="s">
         <v>210</v>
       </c>
+      <c r="DE8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -5183,6 +5228,12 @@
       <c r="DD9" t="s">
         <v>210</v>
       </c>
+      <c r="DE9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -5509,6 +5560,12 @@
       <c r="DD10" t="s">
         <v>210</v>
       </c>
+      <c r="DE10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -5835,6 +5892,12 @@
       <c r="DD11" t="s">
         <v>210</v>
       </c>
+      <c r="DE11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -6161,6 +6224,12 @@
       <c r="DD12" t="s">
         <v>3</v>
       </c>
+      <c r="DE12" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -6487,6 +6556,12 @@
       <c r="DD13" t="s">
         <v>2</v>
       </c>
+      <c r="DE13" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -6813,6 +6888,12 @@
       <c r="DD14" t="s">
         <v>4</v>
       </c>
+      <c r="DE14" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -7139,6 +7220,12 @@
       <c r="DD15" t="s">
         <v>210</v>
       </c>
+      <c r="DE15" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -7465,6 +7552,12 @@
       <c r="DD16" t="s">
         <v>2</v>
       </c>
+      <c r="DE16" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -7791,6 +7884,12 @@
       <c r="DD17" t="s">
         <v>2</v>
       </c>
+      <c r="DE17" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -8117,6 +8216,12 @@
       <c r="DD18" t="s">
         <v>210</v>
       </c>
+      <c r="DE18" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -8443,6 +8548,12 @@
       <c r="DD19" t="s">
         <v>210</v>
       </c>
+      <c r="DE19" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -8769,6 +8880,12 @@
       <c r="DD20" t="s">
         <v>4</v>
       </c>
+      <c r="DE20" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -9093,6 +9210,12 @@
         <v>210</v>
       </c>
       <c r="DD21" t="s">
+        <v>210</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF21" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9112,324 +9235,330 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>134</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>135</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>136</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>137</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>138</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>139</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>140</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>145</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>147</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>148</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>150</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>151</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>153</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>154</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>155</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>158</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>161</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>163</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>165</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>166</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>170</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>172</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>173</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>174</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>175</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>176</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>179</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>180</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>181</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>182</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>185</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>205</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>206</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>207</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>208</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9758,6 +9887,12 @@
       <c r="DD2" t="s">
         <v>210</v>
       </c>
+      <c r="DE2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -10084,6 +10219,12 @@
       <c r="DD3" t="s">
         <v>9</v>
       </c>
+      <c r="DE3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -10410,6 +10551,12 @@
       <c r="DD4" t="s">
         <v>210</v>
       </c>
+      <c r="DE4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -10736,6 +10883,12 @@
       <c r="DD5" t="s">
         <v>211</v>
       </c>
+      <c r="DE5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -11062,6 +11215,12 @@
       <c r="DD6" t="s">
         <v>9</v>
       </c>
+      <c r="DE6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -11388,6 +11547,12 @@
       <c r="DD7" t="s">
         <v>211</v>
       </c>
+      <c r="DE7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -11714,6 +11879,12 @@
       <c r="DD8" t="s">
         <v>210</v>
       </c>
+      <c r="DE8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -12040,6 +12211,12 @@
       <c r="DD9" t="s">
         <v>210</v>
       </c>
+      <c r="DE9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -12366,6 +12543,12 @@
       <c r="DD10" t="s">
         <v>210</v>
       </c>
+      <c r="DE10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -12692,6 +12875,12 @@
       <c r="DD11" t="s">
         <v>210</v>
       </c>
+      <c r="DE11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -13018,6 +13207,12 @@
       <c r="DD12" t="s">
         <v>211</v>
       </c>
+      <c r="DE12" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -13344,6 +13539,12 @@
       <c r="DD13" t="s">
         <v>10</v>
       </c>
+      <c r="DE13" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -13670,6 +13871,12 @@
       <c r="DD14" t="s">
         <v>9</v>
       </c>
+      <c r="DE14" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -13996,6 +14203,12 @@
       <c r="DD15" t="s">
         <v>210</v>
       </c>
+      <c r="DE15" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -14322,6 +14535,12 @@
       <c r="DD16" t="s">
         <v>9</v>
       </c>
+      <c r="DE16" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -14648,6 +14867,12 @@
       <c r="DD17" t="s">
         <v>11</v>
       </c>
+      <c r="DE17" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -14974,6 +15199,12 @@
       <c r="DD18" t="s">
         <v>210</v>
       </c>
+      <c r="DE18" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -15300,6 +15531,12 @@
       <c r="DD19" t="s">
         <v>210</v>
       </c>
+      <c r="DE19" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -15626,6 +15863,12 @@
       <c r="DD20" t="s">
         <v>211</v>
       </c>
+      <c r="DE20" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -15950,6 +16193,12 @@
         <v>210</v>
       </c>
       <c r="DD21" t="s">
+        <v>210</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>10</v>
+      </c>
+      <c r="DF21" t="s">
         <v>210</v>
       </c>
     </row>
@@ -15969,324 +16218,330 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>134</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>135</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>136</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>137</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>138</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>139</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>140</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>145</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>147</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>148</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>150</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>151</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>153</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>154</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>155</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>158</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>161</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>163</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>165</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>166</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>170</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>172</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>173</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>174</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>175</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>176</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>179</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>180</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>181</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>182</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>185</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>205</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>206</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>207</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>208</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -16615,6 +16870,12 @@
       <c r="DD2" t="s">
         <v>210</v>
       </c>
+      <c r="DE2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -16941,6 +17202,12 @@
       <c r="DD3" t="s">
         <v>9</v>
       </c>
+      <c r="DE3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -17267,6 +17534,12 @@
       <c r="DD4" t="s">
         <v>210</v>
       </c>
+      <c r="DE4" t="s">
+        <v>10</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -17593,6 +17866,12 @@
       <c r="DD5" t="s">
         <v>211</v>
       </c>
+      <c r="DE5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -17919,6 +18198,12 @@
       <c r="DD6" t="s">
         <v>9</v>
       </c>
+      <c r="DE6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -18245,6 +18530,12 @@
       <c r="DD7" t="s">
         <v>10</v>
       </c>
+      <c r="DE7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -18571,6 +18862,12 @@
       <c r="DD8" t="s">
         <v>210</v>
       </c>
+      <c r="DE8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -18897,6 +19194,12 @@
       <c r="DD9" t="s">
         <v>210</v>
       </c>
+      <c r="DE9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -19223,6 +19526,12 @@
       <c r="DD10" t="s">
         <v>210</v>
       </c>
+      <c r="DE10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -19549,6 +19858,12 @@
       <c r="DD11" t="s">
         <v>210</v>
       </c>
+      <c r="DE11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -19875,6 +20190,12 @@
       <c r="DD12" t="s">
         <v>211</v>
       </c>
+      <c r="DE12" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -20201,6 +20522,12 @@
       <c r="DD13" t="s">
         <v>211</v>
       </c>
+      <c r="DE13" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -20527,6 +20854,12 @@
       <c r="DD14" t="s">
         <v>11</v>
       </c>
+      <c r="DE14" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -20853,6 +21186,12 @@
       <c r="DD15" t="s">
         <v>210</v>
       </c>
+      <c r="DE15" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -21179,6 +21518,12 @@
       <c r="DD16" t="s">
         <v>211</v>
       </c>
+      <c r="DE16" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -21505,6 +21850,12 @@
       <c r="DD17" t="s">
         <v>9</v>
       </c>
+      <c r="DE17" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -21831,6 +22182,12 @@
       <c r="DD18" t="s">
         <v>210</v>
       </c>
+      <c r="DE18" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -22157,6 +22514,12 @@
       <c r="DD19" t="s">
         <v>210</v>
       </c>
+      <c r="DE19" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -22483,6 +22846,12 @@
       <c r="DD20" t="s">
         <v>9</v>
       </c>
+      <c r="DE20" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -22807,6 +23176,12 @@
         <v>210</v>
       </c>
       <c r="DD21" t="s">
+        <v>210</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>10</v>
+      </c>
+      <c r="DF21" t="s">
         <v>210</v>
       </c>
     </row>
@@ -22826,324 +23201,330 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>134</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>135</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>136</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>137</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>138</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>139</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>140</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>141</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>142</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>143</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>144</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>145</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>146</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>147</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>148</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>149</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>150</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>151</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>153</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>154</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>155</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>157</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>158</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>159</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>161</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>162</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>163</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>164</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>165</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>166</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>167</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>170</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>171</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>172</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>173</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>174</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>175</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>176</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>177</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>178</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>179</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>180</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>181</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>182</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>185</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>186</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>187</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>188</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>189</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>190</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>191</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>192</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>193</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>194</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>195</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>196</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>197</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>198</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>199</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>200</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>201</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>202</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>203</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>204</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>205</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>206</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>207</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>208</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -23472,6 +23853,12 @@
       <c r="DD2" t="s">
         <v>210</v>
       </c>
+      <c r="DE2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -23798,6 +24185,12 @@
       <c r="DD3" t="s">
         <v>10</v>
       </c>
+      <c r="DE3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -24124,6 +24517,12 @@
       <c r="DD4" t="s">
         <v>210</v>
       </c>
+      <c r="DE4" t="s">
+        <v>12</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -24450,6 +24849,12 @@
       <c r="DD5" t="s">
         <v>211</v>
       </c>
+      <c r="DE5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -24776,6 +25181,12 @@
       <c r="DD6" t="s">
         <v>10</v>
       </c>
+      <c r="DE6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -25102,6 +25513,12 @@
       <c r="DD7" t="s">
         <v>10</v>
       </c>
+      <c r="DE7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -25428,6 +25845,12 @@
       <c r="DD8" t="s">
         <v>210</v>
       </c>
+      <c r="DE8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -25754,6 +26177,12 @@
       <c r="DD9" t="s">
         <v>210</v>
       </c>
+      <c r="DE9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -26080,6 +26509,12 @@
       <c r="DD10" t="s">
         <v>210</v>
       </c>
+      <c r="DE10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -26406,6 +26841,12 @@
       <c r="DD11" t="s">
         <v>210</v>
       </c>
+      <c r="DE11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -26732,6 +27173,12 @@
       <c r="DD12" t="s">
         <v>211</v>
       </c>
+      <c r="DE12" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -27058,6 +27505,12 @@
       <c r="DD13" t="s">
         <v>10</v>
       </c>
+      <c r="DE13" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -27384,6 +27837,12 @@
       <c r="DD14" t="s">
         <v>12</v>
       </c>
+      <c r="DE14" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -27710,6 +28169,12 @@
       <c r="DD15" t="s">
         <v>210</v>
       </c>
+      <c r="DE15" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -28036,6 +28501,12 @@
       <c r="DD16" t="s">
         <v>9</v>
       </c>
+      <c r="DE16" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -28362,6 +28833,12 @@
       <c r="DD17" t="s">
         <v>12</v>
       </c>
+      <c r="DE17" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -28688,6 +29165,12 @@
       <c r="DD18" t="s">
         <v>210</v>
       </c>
+      <c r="DE18" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -29014,6 +29497,12 @@
       <c r="DD19" t="s">
         <v>210</v>
       </c>
+      <c r="DE19" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -29340,6 +29829,12 @@
       <c r="DD20" t="s">
         <v>9</v>
       </c>
+      <c r="DE20" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -29664,6 +30159,12 @@
         <v>210</v>
       </c>
       <c r="DD21" t="s">
+        <v>210</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>12</v>
+      </c>
+      <c r="DF21" t="s">
         <v>210</v>
       </c>
     </row>
@@ -29829,13 +30330,13 @@
         <v>223</v>
       </c>
       <c r="X2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y2" t="s">
         <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
@@ -29903,19 +30404,19 @@
         <v>11</v>
       </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s">
         <v>219</v>
       </c>
       <c r="X3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y3" t="s">
         <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
@@ -29983,19 +30484,19 @@
         <v>9</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -30063,19 +30564,19 @@
         <v>10</v>
       </c>
       <c r="V5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="X5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y5" t="s">
         <v>49</v>
       </c>
       <c r="Z5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
@@ -30143,19 +30644,19 @@
         <v>11</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y6" t="s">
         <v>49</v>
       </c>
       <c r="Z6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
@@ -30223,19 +30724,19 @@
         <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="W7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y7" t="s">
         <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
@@ -30303,19 +30804,19 @@
         <v>12</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y8" t="s">
         <v>49</v>
       </c>
       <c r="Z8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -30386,16 +30887,16 @@
         <v>218</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y9" t="s">
         <v>49</v>
       </c>
       <c r="Z9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
@@ -30463,19 +30964,19 @@
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y10" t="s">
         <v>49</v>
       </c>
       <c r="Z10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11">
@@ -30534,7 +31035,7 @@
         <v>11</v>
       </c>
       <c r="S11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T11" t="s">
         <v>12</v>
@@ -30543,19 +31044,19 @@
         <v>11</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s">
         <v>219</v>
       </c>
       <c r="X11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Y11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12">
@@ -30626,16 +31127,16 @@
         <v>219</v>
       </c>
       <c r="W12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y12" t="s">
         <v>49</v>
       </c>
       <c r="Z12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13">
@@ -30703,19 +31204,19 @@
         <v>210</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s">
         <v>221</v>
       </c>
       <c r="X13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y13" t="s">
         <v>49</v>
       </c>
       <c r="Z13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14">
@@ -30789,13 +31290,13 @@
         <v>223</v>
       </c>
       <c r="X14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y14" t="s">
         <v>49</v>
       </c>
       <c r="Z14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15">
@@ -30866,16 +31367,16 @@
         <v>220</v>
       </c>
       <c r="W15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y15" t="s">
         <v>49</v>
       </c>
       <c r="Z15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16">
@@ -30946,16 +31447,16 @@
         <v>219</v>
       </c>
       <c r="W16" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="X16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y16" t="s">
         <v>49</v>
       </c>
       <c r="Z16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17">
@@ -31023,19 +31524,19 @@
         <v>13</v>
       </c>
       <c r="V17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y17" t="s">
         <v>49</v>
       </c>
       <c r="Z17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18">
@@ -31106,16 +31607,16 @@
         <v>221</v>
       </c>
       <c r="W18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="X18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y18" t="s">
         <v>49</v>
       </c>
       <c r="Z18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19">
@@ -31183,19 +31684,19 @@
         <v>10</v>
       </c>
       <c r="V19" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" t="s">
         <v>78</v>
       </c>
-      <c r="W19" t="s">
-        <v>79</v>
-      </c>
       <c r="X19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20">
@@ -31266,16 +31767,16 @@
         <v>222</v>
       </c>
       <c r="W20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y20" t="s">
         <v>49</v>
       </c>
       <c r="Z20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21">
@@ -31289,7 +31790,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -31343,19 +31844,19 @@
         <v>210</v>
       </c>
       <c r="V21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X21" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="Y21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -31374,76 +31875,76 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N1" t="s">
         <v>215</v>
       </c>
       <c r="O1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="U1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="W1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -31478,13 +31979,13 @@
         <v>90.0</v>
       </c>
       <c r="K2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N2" t="n">
         <v>37.0</v>
@@ -31514,13 +32015,13 @@
         <v>45.0</v>
       </c>
       <c r="W2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
@@ -31555,13 +32056,13 @@
         <v>39.0</v>
       </c>
       <c r="K3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N3" t="n">
         <v>37.0</v>
@@ -31591,13 +32092,13 @@
         <v>74.0</v>
       </c>
       <c r="W3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X3" t="s">
         <v>359</v>
       </c>
       <c r="Y3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
@@ -31611,10 +32112,10 @@
         <v>105.0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.0</v>
+        <v>105.0</v>
       </c>
       <c r="E4" t="n">
-        <v>205.0</v>
+        <v>210.0</v>
       </c>
       <c r="F4" t="n">
         <v>32.0</v>
@@ -31623,34 +32124,34 @@
         <v>1.7777777777777777</v>
       </c>
       <c r="H4" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J4" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="K4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N4" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="O4" t="n">
         <v>114.0</v>
       </c>
       <c r="P4" t="n">
-        <v>119.0</v>
+        <v>124.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>233.0</v>
+        <v>238.0</v>
       </c>
       <c r="R4" t="n">
         <v>29.0</v>
@@ -31659,22 +32160,22 @@
         <v>1.6111111111111112</v>
       </c>
       <c r="T4" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.6666666666666667</v>
+        <v>1.6842105263157894</v>
       </c>
       <c r="V4" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="W4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X4" t="s">
         <v>360</v>
       </c>
       <c r="Y4" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
@@ -31709,13 +32210,13 @@
         <v>43.0</v>
       </c>
       <c r="K5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N5" t="n">
         <v>37.0</v>
@@ -31745,7 +32246,7 @@
         <v>58.0</v>
       </c>
       <c r="W5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X5" t="s">
         <v>361</v>
@@ -31786,13 +32287,13 @@
         <v>45.0</v>
       </c>
       <c r="K6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N6" t="n">
         <v>37.0</v>
@@ -31822,7 +32323,7 @@
         <v>92.0</v>
       </c>
       <c r="W6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X6" t="s">
         <v>362</v>
@@ -31863,13 +32364,13 @@
         <v>47.0</v>
       </c>
       <c r="K7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N7" t="n">
         <v>37.0</v>
@@ -31899,7 +32400,7 @@
         <v>59.0</v>
       </c>
       <c r="W7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="X7" t="s">
         <v>363</v>
@@ -31940,13 +32441,13 @@
         <v>46.0</v>
       </c>
       <c r="K8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N8" t="n">
         <v>37.0</v>
@@ -32017,13 +32518,13 @@
         <v>84.0</v>
       </c>
       <c r="K9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N9" t="n">
         <v>37.0</v>
@@ -32094,13 +32595,13 @@
         <v>73.0</v>
       </c>
       <c r="K10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N10" t="n">
         <v>37.0</v>
@@ -32130,7 +32631,7 @@
         <v>37.0</v>
       </c>
       <c r="W10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X10" t="s">
         <v>366</v>
@@ -32147,19 +32648,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>116.0</v>
+        <v>127.0</v>
       </c>
       <c r="D11" t="n">
         <v>96.0</v>
       </c>
       <c r="E11" t="n">
-        <v>212.0</v>
+        <v>223.0</v>
       </c>
       <c r="F11" t="n">
         <v>36.0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="H11" t="n">
         <v>25.0</v>
@@ -32171,31 +32672,31 @@
         <v>61.0</v>
       </c>
       <c r="K11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N11" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="O11" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="P11" t="n">
         <v>92.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>173.0</v>
+        <v>177.0</v>
       </c>
       <c r="R11" t="n">
         <v>23.0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.2777777777777777</v>
+        <v>1.2105263157894737</v>
       </c>
       <c r="T11" t="n">
         <v>30.0</v>
@@ -32210,10 +32711,10 @@
         <v>351</v>
       </c>
       <c r="X11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y11" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12">
@@ -32248,13 +32749,13 @@
         <v>72.0</v>
       </c>
       <c r="K12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N12" t="n">
         <v>37.0</v>
@@ -32290,7 +32791,7 @@
         <v>367</v>
       </c>
       <c r="Y12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13">
@@ -32325,13 +32826,13 @@
         <v>85.0</v>
       </c>
       <c r="K13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N13" t="n">
         <v>37.0</v>
@@ -32367,7 +32868,7 @@
         <v>368</v>
       </c>
       <c r="Y13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14">
@@ -32402,13 +32903,13 @@
         <v>39.0</v>
       </c>
       <c r="K14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M14" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N14" t="n">
         <v>37.0</v>
@@ -32444,7 +32945,7 @@
         <v>369</v>
       </c>
       <c r="Y14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15">
@@ -32479,13 +32980,13 @@
         <v>66.0</v>
       </c>
       <c r="K15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N15" t="n">
         <v>37.0</v>
@@ -32515,13 +33016,13 @@
         <v>53.0</v>
       </c>
       <c r="W15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16">
@@ -32556,13 +33057,13 @@
         <v>49.0</v>
       </c>
       <c r="K16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N16" t="n">
         <v>37.0</v>
@@ -32598,7 +33099,7 @@
         <v>370</v>
       </c>
       <c r="Y16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17">
@@ -32633,13 +33134,13 @@
         <v>62.0</v>
       </c>
       <c r="K17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N17" t="n">
         <v>37.0</v>
@@ -32675,7 +33176,7 @@
         <v>371</v>
       </c>
       <c r="Y17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18">
@@ -32710,13 +33211,13 @@
         <v>50.0</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N18" t="n">
         <v>37.0</v>
@@ -32752,7 +33253,7 @@
         <v>372</v>
       </c>
       <c r="Y18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19">
@@ -32766,10 +33267,10 @@
         <v>100.0</v>
       </c>
       <c r="D19" t="n">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="E19" t="n">
-        <v>191.0</v>
+        <v>195.0</v>
       </c>
       <c r="F19" t="n">
         <v>24.0</v>
@@ -32781,31 +33282,31 @@
         <v>25.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3888888888888888</v>
+        <v>1.3157894736842106</v>
       </c>
       <c r="J19" t="n">
         <v>49.0</v>
       </c>
       <c r="K19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N19" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="O19" t="n">
         <v>90.0</v>
       </c>
       <c r="P19" t="n">
-        <v>107.0</v>
+        <v>118.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>197.0</v>
+        <v>208.0</v>
       </c>
       <c r="R19" t="n">
         <v>35.0</v>
@@ -32817,7 +33318,7 @@
         <v>33.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8333333333333333</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="V19" t="n">
         <v>68.0</v>
@@ -32826,10 +33327,10 @@
         <v>357</v>
       </c>
       <c r="X19" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="Y19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20">
@@ -32864,13 +33365,13 @@
         <v>41.0</v>
       </c>
       <c r="K20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N20" t="n">
         <v>37.0</v>
@@ -32903,10 +33404,10 @@
         <v>352</v>
       </c>
       <c r="X20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21">
@@ -32917,19 +33418,19 @@
         <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>97.0</v>
+        <v>102.0</v>
       </c>
       <c r="D21" t="n">
         <v>62.0</v>
       </c>
       <c r="E21" t="n">
-        <v>159.0</v>
+        <v>164.0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>1.0526315789473684</v>
       </c>
       <c r="H21" t="n">
         <v>22.0</v>
@@ -32938,34 +33439,34 @@
         <v>1.2222222222222223</v>
       </c>
       <c r="J21" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="K21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N21" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="O21" t="n">
-        <v>83.0</v>
+        <v>88.0</v>
       </c>
       <c r="P21" t="n">
         <v>91.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.0</v>
+        <v>179.0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.1666666666666667</v>
+        <v>1.2105263157894737</v>
       </c>
       <c r="T21" t="n">
         <v>24.0</v>
@@ -32974,16 +33475,16 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="V21" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="W21" t="s">
         <v>358</v>
       </c>
       <c r="X21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Y21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -33002,19 +33503,19 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" t="s">
         <v>395</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>396</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>397</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>398</v>
-      </c>
-      <c r="F1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="2">
@@ -33022,19 +33523,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3">
@@ -33042,19 +33543,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4">
@@ -33062,19 +33563,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
@@ -33082,19 +33583,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
@@ -33102,19 +33603,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7">
@@ -33122,19 +33623,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8">
@@ -33142,19 +33643,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9">
@@ -33162,19 +33663,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10">
@@ -33182,19 +33683,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11">
@@ -33202,19 +33703,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12">
@@ -33222,19 +33723,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13">
@@ -33242,19 +33743,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14">
@@ -33262,19 +33763,19 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15">
@@ -33282,19 +33783,19 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16">
@@ -33302,19 +33803,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
@@ -33322,19 +33823,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
@@ -33342,19 +33843,19 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
@@ -33362,19 +33863,19 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20">
@@ -33382,19 +33883,19 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21">
@@ -33402,19 +33903,19 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/I1.xlsx
+++ b/Divisions/I1.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7041" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6874" uniqueCount="430">
   <si>
     <t>Team</t>
   </si>
@@ -1313,447 +1312,6 @@
   </si>
   <si>
     <t>35.95%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Atalanta,D L L D D L</t>
-  </si>
-  <si>
-    <t>Bologna,D L W D W L</t>
-  </si>
-  <si>
-    <t>Cagliari,L L L W L L</t>
-  </si>
-  <si>
-    <t>Empoli,L D D W L D</t>
-  </si>
-  <si>
-    <t>Fiorentina,W W W L W W</t>
-  </si>
-  <si>
-    <t>Genoa,D W L W W L</t>
-  </si>
-  <si>
-    <t>Inter,W D W W W W</t>
-  </si>
-  <si>
-    <t>Juventus,W W L D W D</t>
-  </si>
-  <si>
-    <t>Lazio,W W D L W D</t>
-  </si>
-  <si>
-    <t>Milan,D W D W W W</t>
-  </si>
-  <si>
-    <t>Napoli,L W L D W W</t>
-  </si>
-  <si>
-    <t>Roma,D W W W D D</t>
-  </si>
-  <si>
-    <t>Salernitana,D L W W D L</t>
-  </si>
-  <si>
-    <t>Sampdoria,W L L L W W</t>
-  </si>
-  <si>
-    <t>Sassuolo,W W W L D L</t>
-  </si>
-  <si>
-    <t>Spezia,W W L L L L</t>
-  </si>
-  <si>
-    <t>Torino,L D D W L L</t>
-  </si>
-  <si>
-    <t>Udinese,D W W L L L</t>
-  </si>
-  <si>
-    <t>Venezia,L L L L W D</t>
-  </si>
-  <si>
-    <t>Verona,W L W D L L</t>
-  </si>
-  <si>
-    <t>Atalanta,0 1 1 4 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Bologna,0 0 2 2 2 1,(7)</t>
-  </si>
-  <si>
-    <t>Cagliari,0 0 1 1 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Empoli,2 1 0 3 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Fiorentina,1 1 1 0 2 2,(7)</t>
-  </si>
-  <si>
-    <t>Genoa,0 1 1 1 2 0,(5)</t>
-  </si>
-  <si>
-    <t>Inter,5 1 2 3 4 3,(18)</t>
-  </si>
-  <si>
-    <t>Juventus,1 2 0 1 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Lazio,1 2 1 1 2 3,(10)</t>
-  </si>
-  <si>
-    <t>Milan,1 1 0 2 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Napoli,0 2 2 1 6 3,(14)</t>
-  </si>
-  <si>
-    <t>Roma,2 1 3 2 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Salernitana,2 0 2 2 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Sampdoria,2 1 0 1 1 4,(9)</t>
-  </si>
-  <si>
-    <t>Sassuolo,2 4 2 1 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Spezia,2 1 1 3 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Torino,1 1 0 2 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Udinese,1 5 4 0 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Venezia,1 0 1 1 4 0,(7)</t>
-  </si>
-  <si>
-    <t>Verona,3 1 1 1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Atalanta,0 3 2 4 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Bologna,0 1 0 2 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Cagliari,3 1 2 0 2 3,(11)</t>
-  </si>
-  <si>
-    <t>Empoli,3 1 0 2 3 1,(10)</t>
-  </si>
-  <si>
-    <t>Fiorentina,0 0 0 4 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Genoa,0 0 4 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Inter,0 1 0 1 2 0,(4)</t>
-  </si>
-  <si>
-    <t>Juventus,0 0 1 1 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Lazio,0 1 1 2 0 3,(7)</t>
-  </si>
-  <si>
-    <t>Milan,1 0 0 0 0 0,(1)</t>
-  </si>
-  <si>
-    <t>Napoli,1 1 3 1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Roma,2 0 0 1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Salernitana,2 1 1 1 1 4,(10)</t>
-  </si>
-  <si>
-    <t>Sampdoria,0 3 1 2 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Sassuolo,1 1 1 2 1 3,(9)</t>
-  </si>
-  <si>
-    <t>Spezia,0 0 3 4 3 3,(13)</t>
-  </si>
-  <si>
-    <t>Torino,2 1 0 1 1 3,(8)</t>
-  </si>
-  <si>
-    <t>Udinese,1 1 1 1 2 3,(9)</t>
-  </si>
-  <si>
-    <t>Venezia,4 2 2 3 3 0,(14)</t>
-  </si>
-  <si>
-    <t>Verona,1 2 0 1 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Atalanta,0 4 3 8 2 1,(18)</t>
-  </si>
-  <si>
-    <t>Bologna,0 1 2 4 3 4,(14)</t>
-  </si>
-  <si>
-    <t>Cagliari,3 1 3 1 3 4,(15)</t>
-  </si>
-  <si>
-    <t>Empoli,5 2 0 5 4 2,(18)</t>
-  </si>
-  <si>
-    <t>Fiorentina,1 1 1 4 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Genoa,0 1 5 1 3 1,(11)</t>
-  </si>
-  <si>
-    <t>Inter,5 2 2 4 6 3,(22)</t>
-  </si>
-  <si>
-    <t>Juventus,1 2 1 2 3 4,(13)</t>
-  </si>
-  <si>
-    <t>Lazio,1 3 2 3 2 6,(17)</t>
-  </si>
-  <si>
-    <t>Milan,2 1 0 2 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Napoli,1 3 5 2 7 3,(21)</t>
-  </si>
-  <si>
-    <t>Roma,4 1 3 3 0 2,(13)</t>
-  </si>
-  <si>
-    <t>Salernitana,4 1 3 3 2 4,(17)</t>
-  </si>
-  <si>
-    <t>Sampdoria,2 4 1 3 1 5,(16)</t>
-  </si>
-  <si>
-    <t>Sassuolo,3 5 3 3 2 3,(19)</t>
-  </si>
-  <si>
-    <t>Spezia,2 1 4 7 4 3,(21)</t>
-  </si>
-  <si>
-    <t>Torino,3 2 0 3 1 3,(12)</t>
-  </si>
-  <si>
-    <t>Udinese,2 6 5 1 3 5,(22)</t>
-  </si>
-  <si>
-    <t>Venezia,5 2 3 4 7 0,(21)</t>
-  </si>
-  <si>
-    <t>Verona,4 3 1 2 4 1,(15)</t>
-  </si>
-  <si>
-    <t>Atalanta,0-0 1-3 1-2 4-4 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Bologna,0-0 0-1 2-0 2-2 2-1 1-3</t>
-  </si>
-  <si>
-    <t>Cagliari,0-3 0-1 1-2 1-0 1-2 1-3</t>
-  </si>
-  <si>
-    <t>Empoli,2-3 1-1 0-0 3-2 1-3 1-1</t>
-  </si>
-  <si>
-    <t>Fiorentina,1-0 1-0 1-0 0-4 2-0 2-0</t>
-  </si>
-  <si>
-    <t>Genoa,0-0 1-0 1-4 1-0 2-1 0-1</t>
-  </si>
-  <si>
-    <t>Inter,5-0 1-1 2-0 3-1 4-2 3-0</t>
-  </si>
-  <si>
-    <t>Juventus,1-0 2-0 0-1 1-1 2-1 2-2</t>
-  </si>
-  <si>
-    <t>Lazio,1-0 2-1 1-1 1-2 2-0 3-3</t>
-  </si>
-  <si>
-    <t>Milan,1-1 1-0 0-0 2-0 1-0 2-0</t>
-  </si>
-  <si>
-    <t>Napoli,0-1 2-1 2-3 1-1 6-1 3-0</t>
-  </si>
-  <si>
-    <t>Roma,2-2 1-0 3-0 2-1 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Salernitana,2-2 0-1 2-1 2-1 1-1 0-4</t>
-  </si>
-  <si>
-    <t>Sampdoria,2-0 1-3 0-1 1-2 1-0 4-1</t>
-  </si>
-  <si>
-    <t>Sassuolo,2-1 4-1 2-1 1-2 1-1 0-3</t>
-  </si>
-  <si>
-    <t>Spezia,2-0 1-0 1-3 3-4 1-3 0-3</t>
-  </si>
-  <si>
-    <t>Torino,1-2 1-1 0-0 2-1 0-1 0-3</t>
-  </si>
-  <si>
-    <t>Udinese,1-1 5-1 4-1 0-1 1-2 2-3</t>
-  </si>
-  <si>
-    <t>Venezia,1-4 0-2 1-2 1-3 4-3 0-0</t>
-  </si>
-  <si>
-    <t>Verona,3-1 1-2 1-0 1-1 1-3 0-1</t>
-  </si>
-  <si>
-    <t>Atalanta,0 -2 -1 0 0 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Bologna,0 -1 2 0 1 -2,(0)</t>
-  </si>
-  <si>
-    <t>Cagliari,-3 -1 -1 1 -1 -2,(-7)</t>
-  </si>
-  <si>
-    <t>Empoli,-1 0 0 1 -2 0,(-2)</t>
-  </si>
-  <si>
-    <t>Fiorentina,1 1 1 -4 2 2,(3)</t>
-  </si>
-  <si>
-    <t>Genoa,0 1 -3 1 1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Inter,5 0 2 2 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Juventus,1 2 -1 0 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Lazio,1 1 0 -1 2 0,(3)</t>
-  </si>
-  <si>
-    <t>Milan,0 1 0 2 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Napoli,-1 1 -1 0 5 3,(7)</t>
-  </si>
-  <si>
-    <t>Roma,0 1 3 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Salernitana,0 -1 1 1 0 -4,(-3)</t>
-  </si>
-  <si>
-    <t>Sampdoria,2 -2 -1 -1 1 3,(2)</t>
-  </si>
-  <si>
-    <t>Sassuolo,1 3 1 -1 0 -3,(1)</t>
-  </si>
-  <si>
-    <t>Spezia,2 1 -2 -1 -2 -3,(-5)</t>
-  </si>
-  <si>
-    <t>Torino,-1 0 0 1 -1 -3,(-4)</t>
-  </si>
-  <si>
-    <t>Udinese,0 4 3 -1 -1 -1,(4)</t>
-  </si>
-  <si>
-    <t>Venezia,-3 -2 -1 -2 1 0,(-7)</t>
-  </si>
-  <si>
-    <t>Verona,2 -1 1 0 -2 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Atalanta,Genoa(19) Napoli(3) Verona(9) Torino(11) Salernitana(17) Empoli(14)</t>
-  </si>
-  <si>
-    <t>Bologna,Torino(11) Atalanta(8) Sampdoria(15) Udinese(12) Inter(2) Sassuolo(10)</t>
-  </si>
-  <si>
-    <t>Cagliari,Lazio(5) Milan(1) Juventus(4) Sassuolo(10) Verona(9) Inter(2)</t>
-  </si>
-  <si>
-    <t>Empoli,Juventus(4) Verona(9) Spezia(16) Napoli(3) Torino(11) Salernitana(17)</t>
-  </si>
-  <si>
-    <t>Fiorentina,Bologna(13) Empoli(14) Venezia(20) Udinese(12) Roma(6) Juventus(4)</t>
-  </si>
-  <si>
-    <t>Genoa,Empoli(14) Torino(11) Lazio(5) Cagliari(18) Juventus(4) Bologna(13)</t>
-  </si>
-  <si>
-    <t>Inter,Salernitana(17) Fiorentina(7) Verona(9) Roma(6) Empoli(14) Sampdoria(15)</t>
-  </si>
-  <si>
-    <t>Juventus,Spezia(16) Salernitana(17) Inter(2) Bologna(13) Venezia(20) Lazio(5)</t>
-  </si>
-  <si>
-    <t>Lazio,Venezia(20) Sassuolo(10) Torino(11) Milan(1) Sampdoria(15) Verona(9)</t>
-  </si>
-  <si>
-    <t>Milan,Udinese(12) Empoli(14) Bologna(13) Genoa(19) Fiorentina(7) Atalanta(8)</t>
-  </si>
-  <si>
-    <t>Napoli,Milan(1) Udinese(12) Fiorentina(7) Roma(6) Sassuolo(10) Genoa(19)</t>
-  </si>
-  <si>
-    <t>Roma,Verona(9) Atalanta(8) Lazio(5) Salernitana(17) Bologna(13) Venezia(20)</t>
-  </si>
-  <si>
-    <t>Salernitana,Sassuolo(10) Torino(11) Fiorentina(7) Venezia(20) Cagliari(18) Udinese(12)</t>
-  </si>
-  <si>
-    <t>Sampdoria,Empoli(14) Juventus(4) Roma(6) Salernitana(17) Genoa(19) Fiorentina(7)</t>
-  </si>
-  <si>
-    <t>Sassuolo,Fiorentina(7) Spezia(16) Atalanta(8) Juventus(4) Udinese(12) Milan(1)</t>
-  </si>
-  <si>
-    <t>Spezia,Cagliari(18) Venezia(20) Inter(2) Lazio(5) Atalanta(8) Napoli(3)</t>
-  </si>
-  <si>
-    <t>Torino,Cagliari(18) Inter(2) Milan(1) Spezia(16) Napoli(3) Roma(6)</t>
-  </si>
-  <si>
-    <t>Udinese,Roma(6) Cagliari(18) Empoli(14) Salernitana(17) Inter(2) Spezia(16)</t>
-  </si>
-  <si>
-    <t>Venezia,Sassuolo(10) Sampdoria(15) Udinese(12) Atalanta(8) Bologna(13) Cagliari(18)</t>
-  </si>
-  <si>
-    <t>Verona,Venezia(20) Napoli(3) Genoa(19) Sampdoria(15) Milan(1) Torino(11)</t>
   </si>
 </sst>
 </file>
@@ -5105,563 +4663,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G2" t="s">
-        <v>537</v>
-      </c>
-      <c r="H2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" t="s">
-        <v>479</v>
-      </c>
-      <c r="E4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F4" t="s">
-        <v>519</v>
-      </c>
-      <c r="G4" t="s">
-        <v>539</v>
-      </c>
-      <c r="H4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E5" t="s">
-        <v>500</v>
-      </c>
-      <c r="F5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G5" t="s">
-        <v>540</v>
-      </c>
-      <c r="H5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F6" t="s">
-        <v>521</v>
-      </c>
-      <c r="G6" t="s">
-        <v>541</v>
-      </c>
-      <c r="H6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E7" t="s">
-        <v>502</v>
-      </c>
-      <c r="F7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G7" t="s">
-        <v>542</v>
-      </c>
-      <c r="H7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>443</v>
-      </c>
-      <c r="C8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E8" t="s">
-        <v>503</v>
-      </c>
-      <c r="F8" t="s">
-        <v>523</v>
-      </c>
-      <c r="G8" t="s">
-        <v>543</v>
-      </c>
-      <c r="H8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D9" t="s">
-        <v>484</v>
-      </c>
-      <c r="E9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F9" t="s">
-        <v>524</v>
-      </c>
-      <c r="G9" t="s">
-        <v>544</v>
-      </c>
-      <c r="H9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D10" t="s">
-        <v>485</v>
-      </c>
-      <c r="E10" t="s">
-        <v>505</v>
-      </c>
-      <c r="F10" t="s">
-        <v>525</v>
-      </c>
-      <c r="G10" t="s">
-        <v>545</v>
-      </c>
-      <c r="H10" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" t="s">
-        <v>486</v>
-      </c>
-      <c r="E11" t="s">
-        <v>506</v>
-      </c>
-      <c r="F11" t="s">
-        <v>526</v>
-      </c>
-      <c r="G11" t="s">
-        <v>546</v>
-      </c>
-      <c r="H11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D12" t="s">
-        <v>487</v>
-      </c>
-      <c r="E12" t="s">
-        <v>507</v>
-      </c>
-      <c r="F12" t="s">
-        <v>527</v>
-      </c>
-      <c r="G12" t="s">
-        <v>547</v>
-      </c>
-      <c r="H12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D13" t="s">
-        <v>488</v>
-      </c>
-      <c r="E13" t="s">
-        <v>508</v>
-      </c>
-      <c r="F13" t="s">
-        <v>528</v>
-      </c>
-      <c r="G13" t="s">
-        <v>548</v>
-      </c>
-      <c r="H13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>449</v>
-      </c>
-      <c r="C14" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" t="s">
-        <v>489</v>
-      </c>
-      <c r="E14" t="s">
-        <v>509</v>
-      </c>
-      <c r="F14" t="s">
-        <v>529</v>
-      </c>
-      <c r="G14" t="s">
-        <v>549</v>
-      </c>
-      <c r="H14" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C15" t="s">
-        <v>470</v>
-      </c>
-      <c r="D15" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15" t="s">
-        <v>510</v>
-      </c>
-      <c r="F15" t="s">
-        <v>530</v>
-      </c>
-      <c r="G15" t="s">
-        <v>550</v>
-      </c>
-      <c r="H15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D16" t="s">
-        <v>491</v>
-      </c>
-      <c r="E16" t="s">
-        <v>511</v>
-      </c>
-      <c r="F16" t="s">
-        <v>531</v>
-      </c>
-      <c r="G16" t="s">
-        <v>551</v>
-      </c>
-      <c r="H16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D17" t="s">
-        <v>492</v>
-      </c>
-      <c r="E17" t="s">
-        <v>512</v>
-      </c>
-      <c r="F17" t="s">
-        <v>532</v>
-      </c>
-      <c r="G17" t="s">
-        <v>552</v>
-      </c>
-      <c r="H17" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" t="s">
-        <v>473</v>
-      </c>
-      <c r="D18" t="s">
-        <v>493</v>
-      </c>
-      <c r="E18" t="s">
-        <v>513</v>
-      </c>
-      <c r="F18" t="s">
-        <v>533</v>
-      </c>
-      <c r="G18" t="s">
-        <v>553</v>
-      </c>
-      <c r="H18" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C19" t="s">
-        <v>474</v>
-      </c>
-      <c r="D19" t="s">
-        <v>494</v>
-      </c>
-      <c r="E19" t="s">
-        <v>514</v>
-      </c>
-      <c r="F19" t="s">
-        <v>534</v>
-      </c>
-      <c r="G19" t="s">
-        <v>554</v>
-      </c>
-      <c r="H19" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C20" t="s">
-        <v>475</v>
-      </c>
-      <c r="D20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E20" t="s">
-        <v>515</v>
-      </c>
-      <c r="F20" t="s">
-        <v>535</v>
-      </c>
-      <c r="G20" t="s">
-        <v>555</v>
-      </c>
-      <c r="H20" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>456</v>
-      </c>
-      <c r="C21" t="s">
-        <v>476</v>
-      </c>
-      <c r="D21" t="s">
-        <v>496</v>
-      </c>
-      <c r="E21" t="s">
-        <v>516</v>
-      </c>
-      <c r="F21" t="s">
-        <v>536</v>
-      </c>
-      <c r="G21" t="s">
-        <v>556</v>
-      </c>
-      <c r="H21" t="s">
-        <v>576</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
